--- a/nl_sql_results/nltosql-perfect_subsetter-snails-Native-oracle-nlsqlmodel_llama3.3.xlsx
+++ b/nl_sql_results/nltosql-perfect_subsetter-snails-Native-oracle-nlsqlmodel_llama3.3.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5' </t>
+          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5'  </t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -535,12 +535,12 @@
         <is>
           <t>SELECT LocationID, COUNT(*) as TurtleCount 
 FROM tblFieldDataTurtleMeasurements 
-GROUP BY LocationID</t>
+GROUP BY LocationID;</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID </t>
+          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID  </t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -579,7 +579,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements </t>
+          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements  </t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID </t>
+          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID  </t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -656,18 +656,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SELECT LocationID, COUNT(Trap_#) AS num_traps 
+          <t>SELECT LocationID, COUNT(Trap_#) AS num_minnow_traps 
 FROM tblFieldDataMinnowTrapSurveys 
 GROUP BY LocationID</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID </t>
+          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID  </t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -699,12 +699,12 @@
         <is>
           <t>SELECT LocationID, SUM(Count) AS TotalMinnows 
 FROM tblFieldDataMinnowTrapSurveys 
-GROUP BY LocationID;</t>
+GROUP BY LocationID</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID </t>
+          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID  </t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -740,21 +740,20 @@
         <is>
           <t>SELECT 
   LocationID, 
-  Trap_#, 
   SUM(Count) AS TotalMinnowsCounted
 FROM 
   tblFieldDataMinnowTrapSurveys
 GROUP BY 
-  LocationID, Trap_#</t>
+  LocationID</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#] </t>
+          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#]  </t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -784,25 +783,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SELECT Stage, Count 
+          <t>SELECT Stage, COUNT 
 FROM tblFieldDataMinnowTrapSurveys 
-WHERE LocationID = 'ASIS_HERPS_20H'</t>
+WHERE LocationID = 'ASIS_HERPS_20H'
+GROUP BY Stage;</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage </t>
+          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage  </t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts ) </t>
+          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts )  </t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -867,19 +867,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SELECT AVG(T1.TempC) AS avg_temp, AVG(T1.Salinity) AS avg_salinity, AVG(T1.Conductivity) AS avg_conductivity, AVG(T1.pH) AS avg_pH 
+          <t>SELECT AVG(T1.TempC) AS Average_Temperature, 
+       AVG(T1.Salinity) AS Average_Salinity, 
+       AVG(T1.Conductivity) AS Average_Conductivity, 
+       AVG(T1.pH) AS Average_pH
 FROM tblFieldDataWaterProperties T1
 INNER JOIN tblFieldDataTurtleTrapSurveys T2
-ON T1.RecordID = T2.RecordID;</t>
+ON T1.RecordID = T2.RecordID</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )  </t>
+          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )   </t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -909,16 +912,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SELECT t1.RecordID, t2.Comments 
-FROM tblFieldDataTurtleTrapSurveys t1 
-INNER JOIN tblFieldDataTurtleMeasurements t2 
+          <t>SELECT t1.RecordID, t1.Comments 
+FROM tblFieldDataTurtleMeasurements t1 
+INNER JOIN tblFieldDataTurtleTrapSurveys t2 
 ON t1.RecordID = t2.RecordID 
-WHERE t1.Sex != t2.Sex;</t>
+WHERE t1.Sex != t2.Sex</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex </t>
+          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex  </t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -954,12 +957,12 @@
         <is>
           <t>SELECT Sex, MAX(Weight) as MaxWeight 
 FROM tblFieldDataTurtleMeasurements 
-GROUP BY Sex;</t>
+GROUP BY Sex</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -991,21 +994,25 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SELECT MAX(SVL) FROM tblFieldDataSnakeDataCollection</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 svl  from tblFieldDataSnakeDataCollection order by svl desc </t>
+          <t xml:space="preserve">select  svl  from tblFieldDataSnakeDataCollection order by svl desc limit 1 </t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>170</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -1029,18 +1036,18 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>SELECT 
-  Sex, 
-  AVG(Weight) AS Average_Weight, 
-  AVG(SVL) AS Average_SVL
+    Sex, 
+    AVG(Weight) AS Average_Weight, 
+    AVG(SVL) AS Average_SVL
 FROM 
-  tblFieldDataSnakeDataCollection
+    tblFieldDataSnakeDataCollection
 GROUP BY 
-  Sex</t>
+    Sex;</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex </t>
+          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex  </t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1086,7 +1093,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code] </t>
+          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code]  </t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1129,7 +1136,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title] </t>
+          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title]  </t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1165,25 +1172,25 @@
         <is>
           <t>SELECT DISTINCT te.EventID 
 FROM tblEvents te 
-JOIN tblEventDataHerps tedh ON te.EventID = tedh.EventID 
-JOIN Observer_LU olu ON tedh.ObsInits = olu.ObsInits 
+JOIN Observer_LU olu ON te.EventID IN (SELECT EventID FROM tlinkObservers WHERE ObsInits = olu.ObsInits) 
+JOIN tlinkObservers tobs ON te.EventID = tobs.EventID 
 WHERE te.Year = 2004 AND olu.FirstName = 'Allison' AND olu.LastName = 'Turner'</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner' </t>
+          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner'  </t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -1208,24 +1215,24 @@
         <is>
           <t>SELECT DISTINCT o.ObsInits, o.FirstName, o.LastName 
 FROM Observer_LU o
-JOIN tlinkObservers tobs ON o.ObsInits = tobs.ObsInits
-JOIN tblFieldDataTurtleMeasurements tfdtm ON tobs.EventID = tfdtm.EventID;</t>
+JOIN tlinkObservers to ON o.ObsInits = to.ObsInits
+WHERE to.EventID IN (SELECT EventID FROM tblFieldDataTurtleMeasurements)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID  </t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1260,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations </t>
+          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations  </t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1301,7 +1308,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId </t>
+          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId  </t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1336,14 +1343,14 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>SELECT t2.Description, COUNT(t1.Stage) 
-FROM tblFieldDataMinnowTrapSurveys t1 
-JOIN tluStage t2 ON t1.Stage = t2.Stage 
+FROM tblFieldDataMinnowTrapSurveys t1
+JOIN tluStage t2 ON t1.Stage = t2.Stage
 GROUP BY t2.Description</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description </t>
+          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description  </t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1379,23 +1386,23 @@
         <is>
           <t>SELECT AbundanceID, Abundance 
 FROM tblAbundance_LU 
-WHERE Abundance = 'Occasional';</t>
+WHERE AbundanceText = 'Occasional'</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional' </t>
+          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional'  </t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1432,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood' </t>
+          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood'  </t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1462,12 +1469,12 @@
           <t>SELECT T1.Board_#, T1.Type 
 FROM tblFieldDataCoverBoard T1 
 INNER JOIN tblLocations T2 ON T1.LocationID = T2.LocationID 
-WHERE T2.SiteID = '18CB1' AND T1.Board_# &lt;&gt; 0</t>
+WHERE T2.SiteID = '18CB1' AND T1.Board_# != 0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0 </t>
+          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0  </t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1501,20 +1508,20 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SELECT AVG(teh.AirTemp) 
-FROM tblEventDataHerps teh 
-JOIN tblFieldDataCoverBoard tfdc ON teh.EventID = tfdc.EventID 
-JOIN tblLocations tlo ON tfdc.LocationID = tlo.LocationID 
-WHERE teh.Weather = 'Cloudy' AND tfdc.Type = 'Wood' AND tlo.SiteID = '30CB2'</t>
+          <t>SELECT AVG(T1.AirTemp) 
+FROM tblEventDataHerps T1
+JOIN tblFieldDataCoverBoard T2 ON T1.EventID = T2.EventID
+JOIN tblLocations T3 ON T2.LocationID = T3.LocationID
+WHERE T3.SiteID = '30CB2' AND T2.Type = 'Wood' AND T1.Weather = 'Cloudy'</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy' </t>
+          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy'  </t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1544,19 +1551,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SELECT Behavior, COUNT(*) 
-FROM tblFieldDataSnakeDataCollection 
-WHERE CaptureMethod = 'coverboard' 
-GROUP BY Behavior;</t>
+          <t>SELECT 
+  Behavior, 
+  COUNT(*) as record_count
+FROM 
+  tblFieldDataSnakeDataCollection
+WHERE 
+  CaptureMethod = 'coverboard'
+GROUP BY 
+  Behavior</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior </t>
+          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior  </t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1593,7 +1605,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%' </t>
+          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%'  </t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1627,20 +1639,20 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SELECT t3.PointID, t2.SnakeID, t2.Board_#, t3.UTMX, t3.UTMY 
-FROM tblLocations t1 
-JOIN tblFieldDataCoverBoard t2 ON t1.LocationID = t2.LocationID 
-JOIN tblLocationsPoints t3 ON t1.LocationID = t3.LocationID 
-WHERE t1.SiteID = '18CB1'</t>
+          <t>SELECT lps.PointID, fdc.SnakeID, fdc.Board_#, lps.UTMX, lps.UTMY 
+FROM tblLocationsPoints lps
+JOIN tblFieldDataCoverBoard fdc ON lps.LocationID = fdc.LocationID
+JOIN tblLocations loc ON lps.LocationID = loc.LocationID
+WHERE loc.SiteID = '18CB1'</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1' </t>
+          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1'  </t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -1673,12 +1685,12 @@
           <t>SELECT DISTINCT o.ObsInits 
 FROM Observer_LU o 
 JOIN tlinkObservers tobs ON o.ObsInits = tobs.ObsInits 
-JOIN tblFieldDataCoverBoard tfdc ON tobs.EventID = tfdc.EventID;</t>
+JOIN tblFieldDataCoverBoard tfdc ON tobs.EventID = tfdc.EventID</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID  </t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1713,19 +1725,19 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>SELECT 
-    Weather, 
-    COUNT(*) as EventCount, 
-    AVG(AirTemp) as AverageAirTemp, 
-    AVG(WaterTemp) as AverageWaterTemp
+  Weather, 
+  COUNT(*) AS EventCount, 
+  AVG(AirTemp) AS AverageAirTemp, 
+  AVG(WaterTemp) AS AverageWaterTemp
 FROM 
-    tblEventDataHerps
+  tblEventDataHerps
 GROUP BY 
-    Weather</t>
+  Weather;</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1766,7 +1778,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits </t>
+          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits  </t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1807,7 +1819,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1846,7 +1858,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description  from tluProject where project = 'WQ' </t>
+          <t xml:space="preserve">select description  from tluProject where project = 'WQ'  </t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1885,7 +1897,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS' </t>
+          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS'  </t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1924,7 +1936,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR' </t>
+          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR'  </t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1965,7 +1977,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond') </t>
+          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond')  </t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2001,12 +2013,12 @@
         <is>
           <t>SELECT Trap_Type, COUNT(*) 
 FROM tblFieldDataTurtleTrapSurveys 
-GROUP BY Trap_Type</t>
+GROUP BY Trap_Type;</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type] </t>
+          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type]  </t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2047,7 +2059,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab' </t>
+          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab'  </t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2085,8 +2097,8 @@
   Sex,
   AVG(Carapace_Length) AS Average_Carapace_Length,
   AVG(Carapace_Width) AS Average_Carapace_Width,
-  AVG(Plastron_Length) AS Average_Plastron_Length,
-  AVG(Plastron_Width) AS Average_Plastron_Width,
+  AVG(Plastron_Length) AS Average_Plustron_Length,
+  AVG(Plastron_Width) AS Average_Plustron_Width,
   AVG(Weight) AS Average_Weight
 FROM 
   tblFieldDataTurtleMeasurements
@@ -2096,11 +2108,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -2135,7 +2147,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1 </t>
+          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1  </t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2177,7 +2189,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName </t>
+          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName  </t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2211,18 +2223,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SELECT CommonName 
-FROM tlu_PlantSpecies 
-WHERE SpeciesCode NOT IN (SELECT SpCode FROM tbl_Nests)</t>
+          <t>SELECT t1.CommonName 
+FROM tlu_PlantSpecies t1 
+LEFT JOIN tbl_Nests t2 ON t1.SpeciesCode = t2.SpCode 
+WHERE t2.SpCode IS NULL;</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	) </t>
+          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	)  </t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -2250,21 +2263,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SELECT tps.genus, COUNT(DISTINCT tn.SpCode) as count
+FROM tlu_PlantSpecies tps
+JOIN tbl_Nests tn ON tps.SpeciesCode = tn.SpCode
+GROUP BY tps.genus
+ORDER BY count DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 5 genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc </t>
+          <t xml:space="preserve">select  genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc limit 5 </t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-1</v>
+        <v>232</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2314,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">select *  from tlu_DecayStage </t>
+          <t xml:space="preserve">select *  from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2331,7 +2353,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood </t>
+          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood  </t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2372,7 +2394,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID </t>
+          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID  </t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2421,7 +2443,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select TOP 1 Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc ) group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc limit 1 ) group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2455,27 +2477,20 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SELECT 
-  E.Event_ID, 
-  COUNT(D.Event_ID) AS num_decayed_logs, 
-  COUNT(N.Event_ID) AS num_nested_subplots
-FROM 
-  tbl_Events E
-  LEFT JOIN tbl_Deadwood D ON E.Event_ID = D.Event_ID
-  LEFT JOIN tbl_Nests N ON E.Event_ID = N.Event_ID
-WHERE 
-  D.Event_ID IS NOT NULL AND N.Event_ID IS NOT NULL
-GROUP BY 
-  E.Event_ID</t>
+          <t>SELECT t1.Event_ID, COUNT(t2.Event_ID) AS num_nested_subplots, COUNT(t3.Event_ID) AS num_decayed_logs
+FROM tbl_Events t1
+JOIN tbl_Nests t2 ON t1.Event_ID = t2.Event_ID
+JOIN tbl_Deadwood t3 ON t1.Event_ID = t3.Event_ID
+GROUP BY t1.Event_ID</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc </t>
+          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc  </t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -2505,32 +2520,32 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SELECT T1.Plot_ID, T1.X_Coord, T1.Y_Coord, T1.Directions 
+          <t>SELECT T1.Plot_ID, T1.X_Coord, T1.Y_Coord, T1.Directions
 FROM tbl_Locations AS T1
-JOIN (
-    SELECT Location_ID, COUNT(Event_ID) as count 
-    FROM tbl_Events 
-    GROUP BY Location_ID 
-    ORDER BY count DESC 
-    LIMIT 1
-) AS T2
-ON T1.Location_ID = T2.Location_ID</t>
+INNER JOIN tbl_Events AS T2 ON T1.Location_ID = T2.Location_ID
+WHERE T2.Event_ID = (
+  SELECT Event_ID
+  FROM tbl_Nests
+  GROUP BY Event_ID
+  ORDER BY COUNT(Event_ID) DESC
+  LIMIT 1
+)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT TOP 1 Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*)  ) </t>
+          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*) limit 1  )  </t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2577,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2596,19 +2611,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SELECT tlu.CanPos_Name, COUNT(tbl.CanPos) 
-FROM tlu_Can_Pos tlu 
-JOIN tbl_Overstory tbl ON tlu.CanPos_Num = tbl.CanPos 
-GROUP BY tlu.CanPos_Name</t>
+          <t>SELECT t1.CanPos_Name, COUNT(t2.CanPos) 
+FROM tlu_Can_Pos t1 
+JOIN tbl_Overstory t2 ON t1.CanPos_Num = t2.CanPos 
+GROUP BY t1.CanPos_Name</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -2638,20 +2653,20 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SELECT t2.TreeTag, t1.CommonName 
-FROM tlu_PlantSpecies t1 
-JOIN tbl_Overstory t2 ON t1.SpeciesCode = t2.SpCode 
-JOIN tlu_Tree_Cond t3 ON t2.TreeCond = t3.TreeCond_Num 
-WHERE t3.TreeCond_Text = 'down'</t>
+          <t>SELECT t1.TreeTag, t3.CommonName 
+FROM tbl_Overstory t1 
+INNER JOIN tlu_Tree_Cond t2 ON t1.TreeCond = t2.TreeCond_Num 
+INNER JOIN tlu_PlantSpecies t3 ON t1.SpCode = t3.SpeciesCode 
+WHERE t2.TreeCond_Text = 'down'</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down' </t>
+          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down'  </t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -2684,12 +2699,12 @@
           <t>SELECT spcode, COUNT(*) as count 
 FROM tbl_Saplings 
 GROUP BY spcode 
-HAVING COUNT(*) &gt; 20</t>
+HAVING COUNT(*) &gt; 20;</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20 </t>
+          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20  </t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2728,7 +2743,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10 </t>
+          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10  </t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2762,14 +2777,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SELECT SpCode, MAX(Density) as max_density
-FROM tbl_Seedlings
+          <t>SELECT SpCode, MAX(Density) AS max_density 
+FROM tbl_Seedlings 
 GROUP BY SpCode;</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode </t>
+          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode  </t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2808,7 +2823,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings </t>
+          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings  </t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2843,15 +2858,15 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>SELECT T1.Directions 
-FROM tbl_Locations AS T1
-INNER JOIN tbl_Tree_Tags AS T2
-ON T1.Location_ID = T2.Location_ID
+FROM tbl_Locations AS T1 
+INNER JOIN tbl_Tree_Tags AS T2 
+ON T1.Location_ID = T2.Location_ID 
 WHERE T2.Tree_Tag_ID = 6;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6 </t>
+          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6  </t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2892,7 +2907,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000 </t>
+          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000  </t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2927,24 +2942,25 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>SELECT 
-  t2.Event_ID, 
-  t1.CoverClass_Text, 
-  COUNT(t2.Cover) AS Count_Nested_Subplots
+  tn.Event_ID, 
+  tcc.CoverClass_Text, 
+  COUNT(tn.Cover) AS Count_Nested_Subplots
 FROM 
-  tlu_Cover_Cls t1
-JOIN 
-  tbl_Nests t2 ON t1.CoverClass_Num = t2.Cover
+  tbl_Nests tn
+INNER JOIN 
+  tlu_Cover_Cls tcc ON tn.Cover = tcc.CoverClass_Num
 GROUP BY 
-  t2.Event_ID, t1.CoverClass_Text</t>
+  tn.Event_ID, 
+  tcc.CoverClass_Text</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text </t>
+          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text  </t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -2981,7 +2997,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30 </t>
+          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30  </t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3018,7 +3034,7 @@
           <t>SELECT 
   p.genus, 
   p.species, 
-  COUNT(w.Witness_SpCode) as TotalWitnessTrees
+  COUNT(w.Witness_SpCode) AS TotalWitnessTrees
 FROM 
   tlu_PlantSpecies p
   LEFT JOIN tbl_WitnessTrees w ON p.SpeciesCode = w.Witness_SpCode
@@ -3029,7 +3045,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species </t>
+          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species  </t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -3065,18 +3081,18 @@
         <is>
           <t>SELECT T1.ListedName, T1.ValidName 
 FROM tlu_Roads_and_Trails AS T1
-JOIN tbl_Locations AS T2 ON T1.ListedName = T2.Trail
-JOIN tbl_Events AS T3 ON T2.Location_ID = T3.Location_ID
+INNER JOIN tbl_Locations AS T2 ON T1.ListedName = T2.Trail
+INNER JOIN tbl_Events AS T3 ON T2.Location_ID = T3.Location_ID
 WHERE T3.Event_ID = 2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2 </t>
+          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2  </t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -3109,7 +3125,7 @@
           <t>SELECT 
   t1.State, 
   t1.County, 
-  COUNT(t3.Location_ID) as Tree_Tag_Count
+  COUNT(t3.Location_ID) as TreeTagCount
 FROM 
   tlu_PlaceNames t1
 JOIN 
@@ -3122,7 +3138,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County </t>
+          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County  </t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3163,7 +3179,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount' </t>
+          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount'  </t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3199,17 +3215,18 @@
         <is>
           <t>SELECT tlu_topo_position.TopoPosition 
 FROM tlu_topo_position 
-JOIN tbl_Locations ON tlu_topo_position.ID = tbl_Locations.Topo_Position 
+JOIN tbl_Locations 
+ON tlu_topo_position.ID = tbl_Locations.Topo_Position 
 WHERE tbl_Locations.X_Coord = 269647 AND tbl_Locations.Y_Coord = 3943851</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851 </t>
+          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851  </t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -3244,7 +3261,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead' </t>
+          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead'  </t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3283,7 +3300,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3 </t>
+          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3  </t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3322,7 +3339,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Datum  from tsys_App_Defaults  </t>
+          <t xml:space="preserve">select Datum  from tsys_App_Defaults   </t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3367,7 +3384,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain' </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain'  </t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3410,7 +3427,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode ) </t>
+          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode )  </t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3444,18 +3461,16 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SELECT Xcoord, Ycoord 
-FROM tbl_Tree_Tags 
-WHERE Tag = 652;</t>
+          <t>SELECT Xcoord, Ycoord FROM tbl_Tree_Tags WHERE Tag = 652</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652 </t>
+          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652  </t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -3485,23 +3500,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SELECT 
-  t1.CoverClass_Text, 
-  COUNT(t2.R2) AS count_of_nests
-FROM 
-  tlu_Cover_Cls t1
-  LEFT JOIN tbl_Nests t2 ON t1.CoverClass_Num = t2.R2
-GROUP BY 
-  t1.CoverClass_Text</t>
+          <t>SELECT T1.CoverClass_Text, COUNT(T2.R2) 
+FROM tlu_Cover_Cls T1 
+LEFT JOIN tbl_Nests T2 ON T1.CoverClass_Num = T2.R2 
+GROUP BY T1.CoverClass_Text</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text </t>
+          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text  </t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3533,17 +3544,17 @@
         <is>
           <t>SELECT tlu_Presence.Pres_Text, COUNT(tbl_Nests.Presence_First) 
 FROM tlu_Presence 
-INNER JOIN tbl_Nests ON tlu_Presence.Pres_Num = tbl_Nests.Presence_First 
+JOIN tbl_Nests ON tlu_Presence.Pres_Num = tbl_Nests.Presence_First 
 GROUP BY tlu_Presence.Pres_Text</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text </t>
+          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text  </t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -3573,18 +3584,18 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SELECT Decay, MAX(MPD) as max_MPD 
+          <t>SELECT Decay, MAX(MPD) 
 FROM tbl_Deadwood 
 GROUP BY Decay;</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -3614,14 +3625,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SELECT Decay, MAX(Length) as Max_Length 
-FROM tbl_Deadwood 
-GROUP BY Decay;</t>
+          <t>SELECT Decay, MAX(Length) as max_length
+FROM tbl_Deadwood
+GROUP BY Decay</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3655,28 +3666,28 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SELECT T2.DecayStage_Descr 
-FROM tlu_Measurement AS T1 
-INNER JOIN tlu_DecayStage AS T2 
-ON T1.DecayStage_ID = T2.DecayStage_ID 
-ORDER BY T1.MidpointDiameter_m 
+          <t>SELECT T1.DecayStage_Descr 
+FROM tlu_DecayStage AS T1
+INNER JOIN tbl_Deadwood AS T2
+ON T1.DecayStage_ID = T2.Decay
+ORDER BY T2.MPD ASC
 LIMIT 1;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by MPD asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by MPD asc limit 1 )  </t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3699,27 +3710,27 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SELECT T2.DecayStage_Descr 
-FROM (SELECT MIN(Length) as min_length, DecayStage_ID 
-      FROM tlu_Specimen) T1
-INNER JOIN tlu_DecayStage T2 
-ON T1.DecayStage_ID = T2.DecayStage_ID;</t>
+          <t>SELECT T1.DecayStage_Descr 
+FROM tlu_DecayStage AS T1
+JOIN tbl_Deadwood AS T2 ON T1.DecayStage_ID = T2.Decay
+ORDER BY T2.Length ASC
+LIMIT 1;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by Length asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by Length asc limit 1 )  </t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3744,12 +3755,12 @@
         <is>
           <t>SELECT SiteDescription, Slope, Aspect, Loc_Notes, Accuracy_Notes 
 FROM tbl_Locations 
-WHERE Slope_shape = 'Convex'</t>
+WHERE Slope_shape = 'Convex';</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex' </t>
+          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex'  </t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3788,7 +3799,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7 </t>
+          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7  </t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3822,7 +3833,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SELECT T1.TreeCond_Text, COUNT(T2.Condition) as SaplingCount
+          <t>SELECT T1.TreeCond_Text, COUNT(T2.Condition) AS SaplingCount
 FROM tlu_Tree_Cond T1
 LEFT JOIN tbl_Saplings T2 ON T1.TreeCond_Num = T2.Condition
 GROUP BY T1.TreeCond_Text</t>
@@ -3830,7 +3841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3871,7 +3882,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf'  </t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3905,25 +3916,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) 
-FROM Vertebrates 
+          <t>SELECT COUNT(Observer) 
+FROM VERTABRATES 
 WHERE Observer = 'Stefanic' OR Observer = 'Dennis Hauser'</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser' </t>
+          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser'  </t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -3946,20 +3957,20 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SELECT B.Definition, COUNT(V.Common_Name) 
-FROM Breeding_Codes B
-JOIN VERTEBRATES V ON B.Breed = V.BREED
-WHERE V.Common_Name = 'mule deer'
+          <t>SELECT B.Definition, COUNT(V.BREED) 
+FROM Breeding_Codes B 
+JOIN VERTEBRATES V ON B.Breed = V.BREED 
+WHERE V.Common_Name = 'mule deer' 
 GROUP BY B.Definition</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition </t>
+          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition  </t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -3996,7 +4007,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida'  </t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4038,7 +4049,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL </t>
+          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL  </t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4079,7 +4090,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235' </t>
+          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235'  </t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4121,7 +4132,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month </t>
+          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month  </t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -4157,16 +4168,16 @@
         <is>
           <t>SELECT Comments 
 FROM Roadkill 
-WHERE CAST(Year AS INTEGER) &lt; 1990;</t>
+WHERE CAST(SUBSTR(Year, 1, 4) AS INTEGER) &lt; 1990;</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990 </t>
+          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990  </t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -4203,7 +4214,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015 </t>
+          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015  </t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4239,23 +4250,23 @@
         <is>
           <t>SELECT COUNT(*) 
 FROM Roadkill 
-WHERE Date IN (SELECT Date FROM VERTERBRATES)</t>
+WHERE Date IN (SELECT Date FROM Vertebrates)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date ) </t>
+          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date )  </t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -4276,21 +4287,28 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SELECT Species, Year, Month 
+FROM Roadkill 
+ORDER BY CAST(REPLACE(number_killed, ',', '') AS INTEGER) DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 species, year, month  from Roadkill order by number_killed desc </t>
+          <t xml:space="preserve">select  species, year, month  from Roadkill order by number_killed desc limit 1 </t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -4314,19 +4332,24 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>SELECT 
-  h.Definition, 
-  (SELECT COUNT(*) FROM VERTEBRATES v WHERE v.Habitat = h.Code) AS VertebrateCount,
-  (SELECT COUNT(*) FROM INVERTEBRATES i WHERE i.Habitat = h.Code) AS InvertebrateCount
-FROM HABITAT_CODES h</t>
+  H.Definition, 
+  COUNT(DISTINCT V.Habitat) AS VertebrateCount,
+  COUNT(DISTINCT I.Habitat) AS InvertebrateCount
+FROM 
+  HABITAT_CODES H
+  LEFT JOIN VERTEBRATES V ON H.Code = V.Habitat
+  LEFT JOIN INVERTEBRATES I ON H.Code = I.Habitat
+GROUP BY 
+  H.Definition</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code </t>
+          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code  </t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -4365,7 +4388,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 ) </t>
+          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 )  </t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4409,7 +4432,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat ) </t>
+          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat )  </t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4443,20 +4466,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SELECT i.Observer AS InvertebrateObserver, v.Observer AS VertebrateObserver, 
-       i.Date, h.Definition AS HabitatDefinition
-FROM INVERTEBRATES i
-JOIN VERTEBRATES v ON i.Habitat = v.Habitat AND i.Date = v.Date
+          <t>SELECT i.Observer AS InvertebrateObserver, v.Observer AS VertebrateObserver, i.Date, h.Definition 
+FROM INVERTEBRATES i 
+JOIN VERTEBRATES v ON i.Habitat = v.Habitat AND i.Date = v.Date 
 JOIN HABITAT_CODES h ON i.Habitat = h.Code</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat </t>
+          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat  </t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -4493,7 +4515,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4527,16 +4549,18 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SELECT Location FROM INVERTEBRATES WHERE Genus_species = 'Trichodes ornatus'</t>
+          <t>SELECT Location 
+FROM INVERTEBRATES 
+WHERE Genus_species = 'Trichodes ornatus';</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus' </t>
+          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus'  </t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -4566,22 +4590,26 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SELECT Observer FROM INVERTEBRATES
-EXCEPT
-SELECT Observer FROM VERTEBRATES
+          <t>SELECT Observer 
+FROM INVERTEBRATES 
+EXCEPT 
+SELECT Observer 
+FROM VERTEBRATES
 UNION
-SELECT Observer FROM VERTEBRATES
-EXCEPT
-SELECT Observer FROM INVERTEBRATES</t>
+SELECT Observer 
+FROM VERTEBRATES 
+EXCEPT 
+SELECT Observer 
+FROM INVERTEBRATES</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES </t>
+          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES  </t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -4611,18 +4639,16 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SELECT UTMN, UTME 
-FROM INVERTEBRATES 
-WHERE Common_Name = 'western white'</t>
+          <t>SELECT UTMN, UTME FROM INVERTEBRATES WHERE Common_Name = 'western white'</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white' </t>
+          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white'  </t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -4659,7 +4685,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766 </t>
+          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766  </t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4693,19 +4719,18 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT R.Species 
-FROM Roadkill R 
-LEFT JOIN VERTEBRATES V ON R.Species = V.Common_Name 
-WHERE V.Common_Name IS NULL</t>
+          <t>SELECT DISTINCT Species 
+FROM Roadkill 
+WHERE Species NOT IN (SELECT Common_Name FROM VERTEBRATES)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -4735,15 +4760,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SELECT Family, MAX(Number) as Max_Number 
-FROM INVERTEBRATES 
-WHERE Number IS NOT NULL 
+          <t>SELECT Family, MAX(Number) as max_number
+FROM INVERTEBRATES
+WHERE Number IS NOT NULL
 GROUP BY Family</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family </t>
+          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family  </t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4782,7 +4807,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer' </t>
+          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer'  </t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4823,7 +4848,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta' </t>
+          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta'  </t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4860,12 +4885,12 @@
           <t>SELECT OBS_TYPE, COUNT(*) 
 FROM INVERTEBRATES 
 WHERE Location = 'Hot springs' 
-GROUP BY OBS_TYPE;</t>
+GROUP BY OBS_TYPE</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4902,12 +4927,12 @@
           <t>SELECT Survey, COUNT(Observer) 
 FROM VERTEBRATES 
 WHERE Observer = 'stefanic' 
-GROUP BY Survey;</t>
+GROUP BY Survey</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey </t>
+          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey  </t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4946,7 +4971,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose' </t>
+          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose'  </t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4983,12 +5008,12 @@
           <t>SELECT Location, COUNT(Big_Game) 
 FROM Roadkill 
 WHERE Big_Game = 'yes' 
-GROUP BY Location;</t>
+GROUP BY Location</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location </t>
+          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location  </t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -5027,7 +5052,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal' </t>
+          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal'  </t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -5061,26 +5086,35 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SELECT V.Species, V.Common_Name, V.Scientific_Name, H.Definition, 'Unknown' AS Observer, V.Number 
-FROM VERTEBRATES V 
-LEFT JOIN HABITAT_CODES H ON V.Habitat = H.Code 
-WHERE V.Number &gt; 100</t>
+          <t>SELECT 
+    V.Species, 
+    V.Common_Name, 
+    V.Scientific_Name, 
+    H.Definition AS Habitat_Definition, 
+    'Observer' AS Observer,
+    V.Number
+FROM 
+    VERTEBRATES V
+JOIN 
+    HABITAT_CODES H ON V.Habitat = H.Code
+WHERE 
+    V.Number &gt; 100</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100 </t>
+          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100  </t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5144,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -5144,18 +5178,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SELECT COMMON_NAME 
-FROM WILDLIFE_MASTERLIST 
+          <t>SELECT COMMON_NAME FROM WILDLIFE_MASTERLIST 
 WHERE COMMON_NAME NOT IN (SELECT Common_Name FROM INVERTEBRATES)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name ) </t>
+          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name )  </t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -5189,18 +5222,18 @@
 FROM Roadkill 
 WHERE Year = '2014' 
 EXCEPT 
-SELECT DISTINCT Species 
+SELECT Species 
 FROM Roadkill 
 WHERE Year = '2015'</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species ) </t>
+          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species )  </t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
@@ -5228,21 +5261,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SELECT HWY_Mile_Marker 
+FROM Roadkill 
+WHERE Year = '2021' 
+GROUP BY HWY_Mile_Marker 
+ORDER BY COUNT(*) DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc </t>
+          <t xml:space="preserve">select  HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc limit 1 </t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5307,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SELECT OBS_TYPE, COUNT(*) 
+          <t>SELECT OBS_TYPE, COUNT(OBS_TYPE) 
 FROM VERTEBRATES 
 WHERE Observer = 'Buckley' 
 GROUP BY OBS_TYPE</t>
@@ -5273,11 +5315,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -5314,7 +5356,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher'  </t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -5355,7 +5397,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel'  </t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5397,7 +5439,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location </t>
+          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location  </t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -5431,19 +5473,18 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SELECT i.Common_Name 
-FROM INVERTEBRATES i
-JOIN VERTEBRATES v ON i.Habitat = v.Habitat
-WHERE v.Common_Name = 'Northern Mockingbird'</t>
+          <t>SELECT I.Common_Name 
+FROM INVERTEBRATES I
+WHERE I.Habitat = (SELECT V.Habitat FROM VERTEBRATES V WHERE V.Common_Name = 'Northern Mockingbird')</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' ) </t>
+          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' )  </t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -5478,7 +5519,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES </t>
+          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES  </t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5514,25 +5555,25 @@
         <is>
           <t>SELECT ted.Event_Notes, te.Location_ID 
 FROM tbl_Events te 
-JOIN tbl_Event_Details ted 
+INNER JOIN tbl_Event_Details ted 
 ON te.Event_ID = ted.Event_ID 
-WHERE STRFTIME('%Y-%m-%d', te.Start_Date) = '2011-08-05'</t>
+WHERE strftime('%Y-%m-%d', te.Start_Date) = '2011-08-05'</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5564,18 +5605,18 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G123" t="n">
         <v>258</v>
       </c>
       <c r="H123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5603,7 +5644,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) eventCount from tbl_events </t>
+          <t xml:space="preserve">select count(*) eventCount from tbl_events  </t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5637,18 +5678,19 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT m.Event_ID) 
-FROM tbl_MicroHabitat m 
-INNER JOIN tbl_MacroHabitat ma ON m.Event_ID = ma.Event_ID</t>
+          <t>SELECT COUNT(DISTINCT t1.Event_ID) 
+FROM tbl_MacroHabitat t1 
+INNER JOIN tbl_MicroHabitat t2 
+ON t1.Event_ID = t2.Event_ID</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID </t>
+          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID  </t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
@@ -5685,7 +5727,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland' </t>
+          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland'  </t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5717,21 +5759,28 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SELECT Reason, Table_NVARCHAR, Field_NVARCHAR, Date_Change 
+FROM tbl_Edit_Log 
+ORDER BY Date_Change DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc </t>
+          <t xml:space="preserve">select  Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc limit 1 </t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>-1</v>
+        <v>208</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5808,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0 </t>
+          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0  </t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5791,21 +5840,41 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SELECT 
+  m.LightIndex, 
+  m.Evergreen, 
+  m.Litter, 
+  m.VegHeight, 
+  l.Elevation
+FROM 
+  tbl_MicroHabitat m
+JOIN 
+  tbl_Events e ON m.Event_ID = e.Event_ID
+JOIN 
+  tbl_Locations l ON e.Location_ID = l.Location_ID
+WHERE 
+  STRFTIME('%Y-%m-%d', e.Start_Date) = '2009-07-28'
+ORDER BY 
+  l.Elevation DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where year(Start_Date) = 2009 and month(Start_Date) = 7 and day(Start_Date) = 28 order by Elevation desc </t>
+          <t xml:space="preserve">select LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) BETWEEN date('2009-07-28') AND date('2009-07-28') order by Elevation desc limit 1  </t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>-1</v>
+        <v>341</v>
       </c>
       <c r="H129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5902,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA </t>
+          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA  </t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -5867,18 +5936,16 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SELECT Species 
-FROM tlu_Species_LABE 
-WHERE SampleYear = '2017'</t>
+          <t>SELECT Species FROM tlu_Species_LABE WHERE SampleYear = '2017'</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017 </t>
+          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017  </t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
@@ -5909,17 +5976,17 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>SELECT 
-  SampleYear, 
-  COUNT(DISTINCT Species) as CountOfDistinctSpecies
+    SampleYear, 
+    COUNT(DISTINCT Species) as DistinctSpeciesCount
 FROM 
-  tlu_Species_ORCA
+    tlu_Species_ORCA
 GROUP BY 
-  SampleYear</t>
+    SampleYear</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear  </t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5954,17 +6021,17 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>SELECT 
-  SampleYear, 
-  COUNT(DISTINCT Species) AS DistinctSpeciesCount
+    SampleYear, 
+    COUNT(DISTINCT Species) as DistinctSpeciesCount
 FROM 
-  tlu_Species_REDW
+    tlu_Species_REDW
 GROUP BY 
-  SampleYear</t>
+    SampleYear</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear  </t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -6005,7 +6072,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS )  </t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -6040,14 +6107,14 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>SELECT DISTINCT t1.Species 
-FROM tlu_Species_ORCA t1 
-INNER JOIN tlu_Species_LAVO t2 
-ON t1.Species = t2.Species</t>
+FROM tlu_Species_ORCA t1
+INNER JOIN tlu_Species_LAVO t2
+ON t1.Species = t2.Species;</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA )  </t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -6083,12 +6150,12 @@
         <is>
           <t>SELECT Position_Title, City, State_Code, Zip_Code 
 FROM tlu_Contacts 
-WHERE First_Name = 'Ivan' AND Last_Name = 'C';</t>
+WHERE First_Name = 'Ivan' AND Last_Name = 'C'</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C' </t>
+          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C'  </t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -6124,12 +6191,12 @@
         <is>
           <t>SELECT Position_Title 
 FROM tlu_Contacts 
-WHERE First_Name = 'Dominic' AND Last_Name = 'D';</t>
+WHERE First_Name = 'Dominic' AND Last_Name = 'D'</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D' </t>
+          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D'  </t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -6168,7 +6235,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations </t>
+          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations  </t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -6204,12 +6271,12 @@
         <is>
           <t>SELECT Enum_Description 
 FROM tlu_Enumerations 
-WHERE Enum_Group = 'Land Use' AND Enum_Code = 'Logging'</t>
+WHERE Enum_Code = 'Logging' AND Enum_Group = 'Land Use'</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging' </t>
+          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging'  </t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -6243,25 +6310,26 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SELECT Enum_Group, COUNT(*) as count 
-FROM tlu_Enumerations 
+          <t>SELECT Enum_Group, COUNT(DISTINCT code) AS num_codes 
+FROM ( SELECT Enum_Group, value AS code 
+       FROM tlu_Enumerations ) 
 GROUP BY Enum_Group;</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group </t>
+          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group  </t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S' </t>
+          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S'  </t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -6328,28 +6396,30 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>SELECT 
-  STRFTIME('%Y', Revision_Date) AS Year,
-  COUNT(*) AS Number_of_Revisions
+    STRFTIME('%Y', Revision_Date) AS Year,
+    COUNT(*) AS Number_of_Revisions
 FROM 
-  tbl_Db_Revisions
+    tbl_Db_Revisions
 GROUP BY 
-  STRFTIME('%Y', Revision_Date)</t>
+    STRFTIME('%Y', Revision_Date)
+ORDER BY 
+    Year;</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by year(Revision_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by strftime('%Y', Revision_Date)  </t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6370,21 +6440,28 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SELECT Site_Name, Site_ID, Site_Desc, Length, Route 
+FROM tbl_Sites 
+ORDER BY Site_Start_Y DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc </t>
+          <t xml:space="preserve">select  Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc limit 1 </t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>-1</v>
+        <v>211</v>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6414,7 +6491,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C' </t>
+          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C'  </t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -6446,21 +6523,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SELECT T1.Site_Name, COUNT(T2.Site_ID) as num_locations
+FROM tbl_Sites T1
+JOIN tbl_Locations T2 ON T1.Site_ID = T2.Site_ID
+GROUP BY T1.Site_Name
+ORDER BY num_locations DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-1</v>
+        <v>225</v>
       </c>
       <c r="H145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6492,7 +6578,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A'  </t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -6524,21 +6610,34 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SELECT T1.First_Name 
+FROM tlu_Contacts AS T1 
+JOIN (
+  SELECT T2.Contact_ID, COUNT(DISTINCT T2.Event_ID) as event_count 
+  FROM xref_Event_Contacts AS T2 
+  GROUP BY T2.Contact_ID
+) AS T3 
+ON T1.Contact_ID = T3.Contact_ID 
+ORDER BY T3.event_count DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc </t>
+          <t xml:space="preserve">select  First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc limit 1 </t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>-1</v>
+        <v>261</v>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6561,27 +6660,27 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT t.First_Name, t.Last_Name, t.Position_Title 
-FROM tlu_Contacts t
-JOIN xref_Event_Contacts x ON t.Contact_ID = x.Contact_ID
-JOIN tbl_Events e ON x.Event_ID = e.Event_ID
-WHERE STRFTIME('%Y-%m', e.Start_Date) = '2021-08'</t>
+          <t>SELECT DISTINCT tlu_Contacts.First_Name, tlu_Contacts.Last_Name, tlu_Contacts.Position_Title 
+FROM tlu_Contacts
+JOIN xref_Event_Contacts ON tlu_Contacts.Contact_ID = xref_Event_Contacts.Contact_ID
+JOIN tbl_Events ON xref_Event_Contacts.Event_ID = tbl_Events.Event_ID
+WHERE STRFTIME('%Y', tbl_Events.Start_Date) = '2021' AND STRFTIME('%m', tbl_Events.Start_Date) = '08'</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where year(Start_Date) = 2021 and month(Start_Date) = 8 </t>
+          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2021-08-01') and date(Start_Date) &lt;= date('2021-08-31')  </t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="H148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6602,21 +6701,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SELECT L.Loc_Name, COUNT(E.Location_ID) as Event_Count
+FROM tbl_Locations L
+JOIN tbl_Events E ON L.Location_ID = E.Location_ID
+GROUP BY L.Loc_Name
+ORDER BY Event_Count DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-1</v>
+        <v>235</v>
       </c>
       <c r="H149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6637,21 +6745,39 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>SELECT 
+    S.Site_Name, 
+    S.Site_Desc, 
+    COUNT(E.Location_ID) as Event_Count
+FROM 
+    tbl_Sites S
+JOIN 
+    tbl_Locations L ON S.Site_ID = L.Site_ID
+JOIN 
+    tbl_Events E ON L.Location_ID = E.Location_ID
+GROUP BY 
+    S.Site_Name, S.Site_Desc
+ORDER BY 
+    Event_Count DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-1</v>
+        <v>295</v>
       </c>
       <c r="H150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6809,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B' </t>
+          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B'  </t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -6722,7 +6848,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta' </t>
+          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta'  </t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -6759,12 +6885,12 @@
           <t>SELECT Loc_Type, COUNT(*) 
 FROM tbl_Locations 
 WHERE County = 'Shasta' 
-GROUP BY Loc_Type;</t>
+GROUP BY Loc_Type</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type </t>
+          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type  </t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -6796,21 +6922,31 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>SELECT T1.Site_Name, COUNT(T2.Site_ID) as Infested_Sites 
+FROM tbl_Sites T1 
+JOIN tbl_Locations T2 ON T1.Site_ID = T2.Site_ID 
+WHERE T2.Loc_Type = 'infestation' 
+GROUP BY T1.Site_Name 
+ORDER BY Infested_Sites DESC 
+LIMIT 10</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6978,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -6878,12 +7014,12 @@
         <is>
           <t>SELECT AVG(Elevation) 
 FROM tbl_Locations 
-WHERE Subwatershed = 'Annie Creek'</t>
+WHERE Subwatershed = 'Annie Creek';</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -6924,7 +7060,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes' </t>
+          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes'  </t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -6965,7 +7101,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924'  </t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -7006,7 +7142,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology </t>
+          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology  </t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -7040,35 +7176,26 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SELECT 
-    M.MacroHab, 
-    M.MicroHab, 
-    M.Hydrology, 
-    M.LandUse, 
-    M.Slope, 
-    M.Aspect
-FROM 
-    tbl_MacroHabitat M
-JOIN 
-    tbl_Events E ON M.Event_ID = E.Event_ID
-WHERE 
-    STRFTIME('%Y', E.Start_Date) = '2015' AND STRFTIME('%m', E.Start_Date) = '07'</t>
+          <t>SELECT M.MacroHab, M.MicroHab, M.Hydrology, M.LandUse, M.Slope, M.Aspect 
+FROM tbl_MacroHabitat M
+JOIN tbl_Events E ON M.Event_ID = E.Event_ID
+WHERE STRFTIME('%Y', E.Start_Date) = '2015' AND STRFTIME('%m', E.Start_Date) = '07'</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where year(Start_Date) = 2015 and month(Start_Date) = 7 </t>
+          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2015-07-01') and date(Start_Date) &lt;= date('2015-07-31')  </t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="H160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7225,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90 </t>
+          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90  </t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -7133,7 +7260,7 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>SELECT 
-    STRFTIME('%Y', Event_Date) AS Year,
+    STRFTIME('%Y', Event_Date) AS Year, 
     COUNT(*) AS Number_of_Events
 FROM 
     tbl_Events
@@ -7145,18 +7272,18 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Event_Date) EventsYear, count(*) eventCount from tbl_events group by year(Event_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Event_Date) EventsYear, count(*) eventCount from tbl_events group by strftime('%Y', Event_Date)  </t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7311,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a' </t>
+          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a'  </t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -7220,12 +7347,12 @@
         <is>
           <t>SELECT Directions 
 FROM tbl_Locations 
-WHERE Trail = 'Maddron Bald Trail'</t>
+WHERE Trail = 'Maddron Bald Trail';</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail' </t>
+          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail'  </t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -7260,25 +7387,26 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>SELECT DISTINCT T1.SiteDescription 
-FROM tbl_Locations T1
-JOIN tbl_Events T2 ON T1.Location_ID = T2.Location_ID
+FROM tbl_Locations AS T1 
+INNER JOIN tbl_Events AS T2 
+ON T1.Location_ID = T2.Location_ID 
 WHERE STRFTIME('%Y', T2.Event_Date) = '2001'</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where year(event_date) = 2001 </t>
+          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where strftime('%Y', Event_Date) = '2001'  </t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7437,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30 </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30  </t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -7349,23 +7477,23 @@
 ON t1.SpeciesCode = t2.SpCode 
 INNER JOIN tbl_Events AS t3 
 ON t2.Event_ID = t3.Event_ID 
-WHERE t1.species = 'montana' AND t2.Event_ID IN (15, 16)</t>
+WHERE t1.species = 'Montana' AND t2.Event_ID IN (15, 16)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16) </t>
+          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16)  </t>
         </is>
       </c>
       <c r="G167" t="n">
         <v>274</v>
       </c>
       <c r="H167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7523,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra' </t>
+          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra'  </t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -7438,7 +7566,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -7472,21 +7600,21 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SELECT T3.Location_ID, AVG(T2.Density) as Average_Density
-FROM tlu_PlantSpecies AS T1
-INNER JOIN tbl_Seedlings AS T2 ON T1.SpeciesCode = T2.SpCode
-INNER JOIN tbl_Events AS T3 ON T2.Event_ID = T3.Event_ID
-WHERE T1.genus = 'Acer'
-GROUP BY T3.Location_ID</t>
+          <t>SELECT T2.Location_ID, AVG(T1.Density) 
+FROM tbl_Seedlings T1 
+JOIN tbl_Events T2 ON T1.Event_ID = T2.Event_ID
+JOIN tlu_PlantSpecies T3 ON T1.SpCode = T3.SpeciesCode
+WHERE T3.genus = 'Acer'
+GROUP BY T2.Location_ID</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID  </t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H170" t="b">
         <v>1</v>
@@ -7516,18 +7644,18 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SELECT AVG(utmN), AVG(utmE) 
+          <t>SELECT AVG(utmN) AS avg_north, AVG(utmE) AS avg_east 
 FROM tlu_PlaceNames 
-WHERE County = 'Sevier' AND State = 'TN';</t>
+WHERE County = 'Sevier' AND State = 'TN'</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN' </t>
+          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN'  </t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H171" t="b">
         <v>1</v>
@@ -7564,7 +7692,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144 </t>
+          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144  </t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -7599,15 +7727,15 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>SELECT T1.TreeCond, COUNT(T1.TreeTag) 
-FROM tbl_Overstory T1 
-JOIN tbl_Tree_Tags T2 ON T1.TreeTag = T2.Tree_Tag_ID 
-WHERE T2.Tag &gt; 220 
+FROM tbl_Overstory T1
+JOIN tbl_Tree_Tags T2 ON T1.TreeTag = T2.Tree_Tag_ID
+WHERE T2.Tag &gt; 220
 GROUP BY T1.TreeCond</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond </t>
+          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond  </t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -7654,7 +7782,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -7686,21 +7814,29 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>SELECT Witness_SpCode, Witness_DBH 
+FROM tbl_WitnessTrees 
+WHERE Location_ID != 4 
+ORDER BY Witness_stake DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc </t>
+          <t xml:space="preserve">select  Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc limit 1 </t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>-1</v>
+        <v>219</v>
       </c>
       <c r="H175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7723,20 +7859,20 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) 
-FROM tbl_Overstory 
-WHERE CanPos = (SELECT CanPos_Num 
-                FROM tlu_Can_Pos 
-                WHERE CanPos_Name = 'Codominant')</t>
+          <t>SELECT COUNT(t2.CanPos) 
+FROM tlu_Can_Pos AS t1 
+JOIN tbl_Overstory AS t2 
+ON t1.CanPos_Num = t2.CanPos 
+WHERE t1.CanPos_Name = 'Codominant'</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant' </t>
+          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant'  </t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
@@ -7767,20 +7903,20 @@
       <c r="E177" t="inlineStr">
         <is>
           <t>SELECT t1.CanPos_Name, COUNT(t2.SpCode) 
-FROM tlu_Can_Pos t1
-JOIN tbl_Overstory t2 ON t1.CanPos_Num = t2.CanPos
-JOIN tlu_PlantSpecies t3 ON t2.SpCode = t3.SpeciesCode
-WHERE t3.CommonName = 'Red Maple'
+FROM tlu_Can_Pos t1 
+JOIN tbl_Overstory t2 ON t1.CanPos_Num = t2.CanPos 
+JOIN tlu_PlantSpecies t3 ON t2.SpCode = t3.SpeciesCode 
+WHERE t3.CommonName = 'Red Maple' 
 GROUP BY t1.CanPos_Name</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -7819,7 +7955,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope' </t>
+          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope'  </t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -7854,15 +7990,15 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>SELECT T2.SpCode, T1.CoverClass_Text 
-FROM tlu_Cover_Cls AS T1 
-INNER JOIN tbl_Nests AS T2 
-ON T1.CoverClass_Num = T2.Cover 
-WHERE T2.Nest_ID = 48</t>
+FROM tlu_Cover_Cls AS T1
+INNER JOIN tbl_Nests AS T2
+ON T1.CoverClass_Num = T2.Cover
+WHERE T2.Nest_ID = 48;</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48 </t>
+          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48  </t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -7908,7 +8044,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -7947,7 +8083,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_DecayStage </t>
+          <t xml:space="preserve">select count(*) from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -7985,16 +8121,16 @@
 FROM tlu_DecayStage AS T1 
 INNER JOIN tbl_Deadwood AS T2 
 ON T1.DecayStage_ID = T2.Decay 
-WHERE T1.DecayStage_Descr LIKE '%log is flat%'</t>
+WHERE T1.DecayStage_Descr LIKE '%log is flat%';</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%' </t>
+          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%'  </t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H182" t="b">
         <v>1</v>
@@ -8024,7 +8160,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SELECT tps.genus 
+          <t>SELECT DISTINCT tps.genus 
 FROM tlu_PlantSpecies tps
 JOIN tbl_Nests tn ON tps.SpeciesCode = tn.SpCode
 JOIN tlu_R1_RestOfPlot tr ON tn.R1 = tr.Pres_Num
@@ -8033,18 +8169,18 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%' </t>
+          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%'  </t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -8065,21 +8201,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>SELECT genus, COUNT(SpeciesNotes) as count
+FROM tlu_PlantSpecies
+WHERE SpeciesNotes LIKE '%native%'
+GROUP BY genus
+ORDER BY count DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc </t>
+          <t xml:space="preserve">select  genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc limit 5 </t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-1</v>
+        <v>211</v>
       </c>
       <c r="H184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8104,23 +8249,23 @@
         <is>
           <t>SELECT Database_title, File_name, Release_notes, Author_email, Author_org_name 
 FROM tsys_App_Releases 
-WHERE STRFTIME('%Y', Release_date) = '2015';</t>
+WHERE STRFTIME('%Y', Release_date) = '2015'</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where year(release_date) = 2015 </t>
+          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where date(release_date) &gt;= date('2015-01-01') AND date(release_date) &lt;= date('2015-12-31')  </t>
         </is>
       </c>
       <c r="G185" t="n">
         <v>233</v>
       </c>
       <c r="H185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8293,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_Slope_Shape </t>
+          <t xml:space="preserve">select count(*) from tlu_Slope_Shape  </t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -8184,7 +8329,7 @@
         <is>
           <t>SELECT 
     T1.Location_ID, 
-    AVG(T2.Density) AS Average_Density
+    AVG(T2.Density) AS Average_Seedling_Density
 FROM 
     tbl_Events T1
 INNER JOIN 
@@ -8192,23 +8337,23 @@
 WHERE 
     STRFTIME('%Y', T1.Event_Date) = '1999'
 GROUP BY 
-    T1.Location_ID;</t>
+    T1.Location_ID</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where year(Event_Date) = 1999 group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where strftime('%Y', Event_Date) = '1999' group by Location_ID  </t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8233,7 +8378,7 @@
         <is>
           <t>SELECT 
   STRFTIME('%Y-%m', e.Event_Date) AS Month,
-  AVG(o.DBH) AS Average_Diameter
+  AVG(o.DBH) AS AverageDiameter
 FROM 
   tbl_Events e
 JOIN 
@@ -8248,7 +8393,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve">select month(e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by month(e.Event_Date) </t>
+          <t xml:space="preserve">select strftime('%m', e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by strftime('%m', e.Event_Date)  </t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -8282,14 +8427,14 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SELECT Layer, COUNT(*) as count 
+          <t>SELECT Layer, COUNT(*) as Count 
 FROM tlu_Roads_and_Trails 
 GROUP BY Layer;</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer  </t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -8331,7 +8476,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer  </t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -8365,18 +8510,18 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SELECT State, COUNT(*) as num_places 
+          <t>SELECT State, COUNT(*) as Number_of_Places 
 FROM tlu_PlaceNames 
 GROUP BY State;</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state </t>
+          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state  </t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H191" t="b">
         <v>1</v>
@@ -8404,21 +8549,28 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SELECT Name, County, State, utmE, utmN 
+FROM tlu_PlaceNames 
+ORDER BY utmN DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc </t>
+          <t xml:space="preserve">select  Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc limit 1 </t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-1</v>
+        <v>208</v>
       </c>
       <c r="H192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8441,21 +8593,21 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SELECT COUNT(t2.Event_ID), t1.Pres_Text 
-FROM tlu_Presence t1 
-INNER JOIN tbl_Nests t2 
-ON t1.Pres_Num = t2.Presence_First 
-WHERE t2.Event_ID = 30 
-GROUP BY t1.Pres_Text</t>
+          <t>SELECT COUNT(T2.Presence_First), T1.Pres_Text 
+FROM tlu_Presence AS T1 
+INNER JOIN tbl_Nests AS T2 
+ON T1.Pres_Num = T2.Presence_First 
+WHERE T2.Event_ID = 30 
+GROUP BY T1.Pres_Text</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text </t>
+          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text  </t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H193" t="b">
         <v>1</v>
@@ -8489,12 +8641,12 @@
     (MAX(X_Coord) - MIN(X_Coord)) AS X_Distance,
     (MAX(Y_Coord) - MIN(Y_Coord)) AS Y_Distance
 FROM 
-    tbl_Locations</t>
+    tbl_Locations;</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations </t>
+          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations  </t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -8526,21 +8678,29 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SELECT t.genus, t.species, t.CommonName 
+FROM tlu_PlantSpecies t
+JOIN tbl_Seedlings s ON t.SpeciesCode = s.SpCode
+ORDER BY s.Density DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc </t>
+          <t xml:space="preserve">select  Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc limit 1 </t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>-1</v>
+        <v>233</v>
       </c>
       <c r="H195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8561,21 +8721,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SELECT STRFTIME('%m', T2.Event_Date) AS Month
+FROM tbl_Seedlings AS T1
+JOIN tbl_Events AS T2 ON T1.Event_ID = T2.Event_ID
+GROUP BY STRFTIME('%m', T2.Event_Date)
+ORDER BY AVG(T1.Density) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 month(Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by month(Event_Date) order by avg(Density) desc </t>
+          <t xml:space="preserve">select  strftime('%m', Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by strftime('%m', Event_Date) order by avg(Density) desc limit 1  </t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>-1</v>
+        <v>233</v>
       </c>
       <c r="H196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8598,20 +8767,20 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SELECT tps.CommonName, COUNT(ttt.SpCode) as Count
+          <t>SELECT tps.CommonName, COUNT(ttt.SpCode) 
 FROM tbl_Tree_Tags ttt
 JOIN tlu_PlantSpecies tps ON ttt.SpCode = tps.SpeciesCode
 WHERE ttt.Location_ID = 2
-GROUP BY tps.CommonName</t>
+GROUP BY tps.CommonName;</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName </t>
+          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName  </t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H197" t="b">
         <v>1</v>
@@ -8644,22 +8813,23 @@
           <t>SELECT 
     tps.genus, 
     tps.CommonName, 
-    COUNT(ttt.SpCode) as Count
+    COUNT(ttt.SpCode) AS Count
 FROM 
     tbl_Tree_Tags ttt
-INNER JOIN 
+JOIN 
     tlu_PlantSpecies tps ON ttt.SpCode = tps.SpeciesCode
-INNER JOIN 
+JOIN 
     tbl_Locations tl ON ttt.Location_ID = tl.Location_ID
 WHERE 
     tl.Elevation &gt; 4000
 GROUP BY 
-    tps.genus, tps.CommonName</t>
+    tps.genus, 
+    tps.CommonName</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName </t>
+          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName  </t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -8700,7 +8870,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1' </t>
+          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1'  </t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -8739,7 +8909,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%' </t>
+          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%'  </t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -8773,18 +8943,18 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT d.Event_ID) 
-FROM tbl_Deadwood d 
-INNER JOIN tbl_Overstory o ON d.Event_ID = o.Event_ID;</t>
+          <t>SELECT COUNT(DISTINCT td.Event_ID) 
+FROM tbl_Deadwood td 
+INNER JOIN tbl_Overstory tov ON td.Event_ID = tov.Event_ID;</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory) </t>
+          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory)  </t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H201" t="b">
         <v>1</v>
@@ -8814,12 +8984,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VIN) FROM GV;</t>
+          <t>SELECT COUNT(DISTINCT VIN) FROM GV</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV  </t>
         </is>
       </c>
       <c r="G202" t="n">
@@ -8858,7 +9028,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE  </t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -8897,7 +9067,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH </t>
+          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH  </t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -8936,7 +9106,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT  </t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -8975,7 +9145,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1  </t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -9009,16 +9179,16 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM JKWGT WHERE CATEGORY = 3</t>
+          <t>SELECT COUNT(CATEGORY) FROM JKWGT WHERE CATEGORY = 3</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3  </t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -9053,7 +9223,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT </t>
+          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT  </t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -9089,12 +9259,12 @@
         <is>
           <t>SELECT AVG(JKWGT5) AS avg_weight, CATEGORY 
 FROM JKWGT 
-GROUP BY CATEGORY</t>
+GROUP BY CATEGORY;</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY </t>
+          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY  </t>
         </is>
       </c>
       <c r="G209" t="n">
@@ -9135,7 +9305,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500  </t>
         </is>
       </c>
       <c r="G210" t="n">
@@ -9178,7 +9348,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000 </t>
+          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000  </t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -9214,12 +9384,12 @@
         <is>
           <t>SELECT INSPTYPE, COUNT(*) 
 FROM GV 
-GROUP BY INSPTYPE</t>
+GROUP BY INSPTYPE;</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE </t>
+          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE  </t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -9253,18 +9423,16 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>SELECT LIGHTCOND, COUNT(CASEID) 
-FROM GV 
-GROUP BY LIGHTCOND;</t>
+          <t>SELECT LIGHTCOND, COUNT(CASEID) FROM GV GROUP BY LIGHTCOND</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND </t>
+          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND  </t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H213" t="b">
         <v>0</v>
@@ -9301,7 +9469,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3  </t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -9335,25 +9503,31 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SELECT RUMBROAD, COUNT(*) 
-FROM GV 
+          <t>SELECT 
+    CASE 
+        WHEN RUMBROAD = 0 THEN 'No Rumble Strip'
+        WHEN RUMBROAD = 1 THEN 'Rumble Strip Present'
+        ELSE 'Unknown'
+    END AS RUMBLE_STRIP_presence,
+    COUNT(*) as count_of_vehicles
+FROM GV
 GROUP BY RUMBROAD</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD </t>
+          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD  </t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="H215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -9377,24 +9551,26 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>SELECT 
-    G.SPEEDLIMIT,
-    E.PVALUE AS max_speed_recorded,
-    (E.PVALUE - G.SPEEDLIMIT) AS speed_diff
+  G.SPEEDLIMIT,
+  MAX(E.PVALUE) AS max_speed,
+  MAX(E.PVALUE) - G.SPEEDLIMIT AS speed_diff
 FROM 
-    GV G
-INNER JOIN 
-    EDRPRECRASH E ON G.CASEID = E.CASEID AND G.VEHNO = E.VEHNO
+  GV G
+JOIN 
+  EDRPRECRASH E ON G.CASEID = E.CASEID AND G.VEHNO = E.VEHNO
 WHERE 
-    E.PCODE = 1010 AND E.PVALUE &lt; 300 AND G.SPEEDLIMIT &lt; 300</t>
+  G.SPEEDLIMIT &lt; 300 AND MAX(E.PVALUE) &lt; 300
+GROUP BY 
+  G.SPEEDLIMIT, G.VEHNO</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300 </t>
+          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300  </t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -9431,7 +9607,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120 </t>
+          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120  </t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -9470,7 +9646,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3  </t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -9511,7 +9687,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -9550,7 +9726,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -9591,7 +9767,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392  </t>
         </is>
       </c>
       <c r="G221" t="n">
@@ -9632,7 +9808,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387 </t>
+          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387  </t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -9666,18 +9842,16 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SELECT REGION, COUNT(*) 
-FROM INJURY 
-GROUP BY REGION</t>
+          <t>SELECT REGION, COUNT(*) FROM INJURY GROUP BY REGION</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H223" t="b">
         <v>1</v>
@@ -9714,7 +9888,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -9753,7 +9927,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999 </t>
+          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999  </t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -9795,7 +9969,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -9832,12 +10006,12 @@
           <t>SELECT AIS, COUNT(*) 
 FROM INJURY 
 WHERE REGION = 6 
-GROUP BY AIS;</t>
+GROUP BY AIS</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -9871,26 +10045,21 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SELECT 
-    v.Make, 
-    COUNT(i.CASEID) as minor_injuries_count
-FROM 
-    INJURY i
-JOIN 
-    VPICDECODE v ON i.CASEID = v.CASEID AND i.VEHNO = v.VEHNO
-WHERE 
-    i.AIS = 1
-GROUP BY 
-    v.Make;</t>
+          <t>SELECT T2.Make, COUNT(T1.CASEID) 
+FROM INJURY AS T1 
+INNER JOIN VPICDECODE AS T2 
+ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
+WHERE T1.AIS = 1
+GROUP BY T2.Make</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE  </t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H228" t="b">
         <v>1</v>
@@ -9918,21 +10087,32 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SELECT T2.Make 
+FROM INJURY AS T1 
+JOIN VPICDECODE AS T2 
+ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO 
+WHERE T1.REGION = 4  -- Assuming REGION = 4 represents neck injuries
+GROUP BY T2.Make 
+ORDER BY COUNT(T1.CASEID) DESC 
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) </t>
+          <t xml:space="preserve">SELECT  MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) limit 1 </t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -9960,7 +10140,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000 </t>
+          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000  </t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -9999,7 +10179,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600  </t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -10040,7 +10220,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600  </t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -10081,7 +10261,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600  </t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -10117,23 +10297,23 @@
         <is>
           <t>SELECT 
     CASEID,
-    NOTIFIED AS notification_time,
-    SCENEARR AS arrival_time_at_scene,
-    SCENEDEP AS departure_time_from_scene,
-    ARRMEDICAL AS arrival_time_at_hospital
+    NOTIFIED AS Notification_Time,
+    SCENEARR AS Arrival_At_Scene_Time,
+    SCENEDEP AS Departure_From_Scene_Time,
+    ARRMEDICAL AS Arrival_At_Hospital_Time
 FROM 
     EMSCARE
 WHERE 
-    EMSTYPE = 1;</t>
+    EMSTYPE = 1</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1 </t>
+          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1  </t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H234" t="b">
         <v>1</v>
@@ -10165,12 +10345,12 @@
         <is>
           <t>SELECT COUNT(*) 
 FROM VPICDECODE 
-WHERE Make = 'TOYOTA' AND Model = 'TACOMA'</t>
+WHERE Make = 'TOYOTA' AND Model = 'TACOMA';</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA' </t>
+          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA'  </t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -10212,7 +10392,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR </t>
+          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR  </t>
         </is>
       </c>
       <c r="G236" t="n">
@@ -10244,21 +10424,29 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>SELECT Make 
+FROM VPICDECODE 
+GROUP BY Make 
+ORDER BY AVG(ModelYear) ASC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC </t>
+          <t xml:space="preserve">SELECT  MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC limit 1 </t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-1</v>
+        <v>172</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -10286,11 +10474,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0  </t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -10320,16 +10508,16 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM GV WHERE ZIP = 95020</t>
+          <t>SELECT COUNT(ZIP) FROM GV WHERE ZIP = 95020</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020  </t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H239" t="b">
         <v>1</v>
@@ -10360,30 +10548,30 @@
       <c r="E240" t="inlineStr">
         <is>
           <t>SELECT 
-  CASE 
-    WHEN DRUGTEST = 0 THEN 'Negative'
-    WHEN DRUGTEST = 1 THEN 'Positive'
-    ELSE 'Unknown'
-  END AS DRUG_TEST_RESULT,
-  COUNT(*) as VEHICLE_COUNT
+    CASE 
+        WHEN DRUGTEST = 0 THEN 'Negative'
+        WHEN DRUGTEST = 1 THEN 'Positive'
+        ELSE 'Unknown'
+    END AS DrugTestResult,
+    COUNT(*) as VehicleCount
 FROM GV
-GROUP BY DRUGTEST;</t>
+GROUP BY DrugTestResult;</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST </t>
+          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST  </t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H240" t="b">
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10411,7 +10599,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING </t>
+          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING  </t>
         </is>
       </c>
       <c r="G241" t="n">
@@ -10445,18 +10633,16 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SELECT CDCPLANE, COUNT(VEHNO) 
-FROM CDC 
-GROUP BY CDCPLANE</t>
+          <t>SELECT CDCPLANE, COUNT(VEHNO) FROM CDC GROUP BY CDCPLANE</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE </t>
+          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE  </t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H242" t="b">
         <v>0</v>
@@ -10491,11 +10677,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1  </t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -10523,21 +10709,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>SELECT RECFRONT1, COUNT(RECFRONT1) as count 
+FROM TIREPLAC 
+WHERE RECFRONT1 != '9999999999' 
+GROUP BY RECFRONT1 
+ORDER BY count DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>-1</v>
+        <v>215</v>
       </c>
       <c r="H244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10565,11 +10760,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1  </t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="H245" t="b">
         <v>1</v>
@@ -10599,22 +10794,18 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>SELECT 
-  G.GLAZIMP, 
-  COUNT(DISTINCT G.VEHNO) AS vehicle_count
-FROM 
-  GLAZING G
-GROUP BY 
-  G.GLAZIMP</t>
+          <t>SELECT GLAZIMP, COUNT(*) 
+FROM GLAZING 
+GROUP BY GLAZIMP;</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP </t>
+          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP  </t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="H246" t="b">
         <v>0</v>
@@ -10646,16 +10837,16 @@
         <is>
           <t>SELECT COUNT(*) 
 FROM ADAPT 
-WHERE AFTER_MARKET_ADAPTIVE_DRIVING_EQUIPMENT = 'YES';</t>
+WHERE Aftermarket_Adaptive_Driving_Equipment = 'Yes';</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT </t>
+          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT  </t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H247" t="b">
         <v>0</v>
@@ -10683,21 +10874,27 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>SELECT MAX(PVALUE) 
+FROM EDRPOSTCRASH 
+WHERE PCODE = 1;</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC </t>
+          <t xml:space="preserve">SELECT  PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC limit 1 </t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-1</v>
+        <v>175</v>
       </c>
       <c r="H248" t="b">
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -10723,12 +10920,12 @@
           <t>SELECT CRASHMONTH, COUNT(*) 
 FROM CRASH 
 GROUP BY CRASHMONTH 
-ORDER BY CRASHMONTH</t>
+ORDER BY CRASHMONTH;</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH </t>
+          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH  </t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -10762,26 +10959,26 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>SELECT CASEID, MAX(PVALUE) 
-FROM EDRPRECRASH 
-WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt;= 200
+          <t>SELECT CASEID, MAX(PVALUE) AS max_speed
+FROM EDRPRECRASH
+WHERE PCODE = 1 AND PVALUE &gt; 100 AND PVALUE &lt;= 200
 GROUP BY CASEID;</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID </t>
+          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID  </t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="H250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10804,28 +11001,29 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>SELECT T1.CASEID, T2.Make, T2.Model, MAX(T1.PVALUE) AS MaxSpeed
-FROM EDRPRECRASH T1
-JOIN VPICDECODE T2 ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
-WHERE T1.PCODE = 1010 AND T1.PVALUE BETWEEN 160 AND 300
-GROUP BY T1.CASEID, T2.Make, T2.Model
+          <t>SELECT T1.CASEID, T1.Make, T1.Model, MAX(T2.PVALUE) AS MaxSpeed
+FROM VPICDECODE T1
+JOIN EDRPRECRASH T2 ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
+WHERE T2.PCODE = 32  -- assuming PCODE 32 represents speed
+GROUP BY T1.CASEID, T1.Make, T1.Model
+HAVING MAX(T2.PVALUE) &gt; 160 AND MAX(T2.PVALUE) &lt;= 300
 ORDER BY MaxSpeed DESC;</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC </t>
+          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC  </t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="H251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10848,12 +11046,12 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT Make FROM VPICDECODE;</t>
+          <t>SELECT DISTINCT Make FROM VPICDECODE</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE  </t>
         </is>
       </c>
       <c r="G252" t="n">
@@ -10892,7 +11090,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS  </t>
         </is>
       </c>
       <c r="G253" t="n">
@@ -10933,7 +11131,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI </t>
+          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI  </t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -10972,7 +11170,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130 </t>
+          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130  </t>
         </is>
       </c>
       <c r="G255" t="n">
@@ -11006,16 +11204,16 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>SELECT AVG(HEIGHT) as AverageHeight, AGE 
+          <t>SELECT AVG(HEIGHT) as avg_height, AGE 
 FROM OCC 
-WHERE HEIGHT &lt;= 220 AND AGE &lt;= 120 
-GROUP BY AGE 
+WHERE HEIGHT &lt;= 220 AND AGE &lt;= 120
+GROUP BY AGE
 ORDER BY AGE ASC;</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC </t>
+          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC  </t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -11054,7 +11252,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1  </t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -11093,7 +11291,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1  </t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -11132,7 +11330,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1) </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1)  </t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -11173,7 +11371,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8) </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8)  </t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -11220,7 +11418,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE </t>
+          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE  </t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -11255,22 +11453,23 @@
       <c r="E262" t="inlineStr">
         <is>
           <t>SELECT 
-    BELTUSE, 
-    COUNT(*) AS TotalOccupantCount, 
+    CASE 
+        WHEN BELTUSE = 1 THEN 'Belt Used'
+        ELSE 'No Belt Used'
+    END AS BeltUseCategory,
+    COUNT(*) AS TotalOccupantCount,
     SUM(CASE WHEN MORTALITY = 1 THEN 1 ELSE 0 END) AS MortalityCount
-FROM 
-    OCC
-GROUP BY 
-    BELTUSE</t>
+FROM OCC
+GROUP BY BELTUSE</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE </t>
+          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE  </t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="H262" t="b">
         <v>0</v>
@@ -11305,7 +11504,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210  </t>
         </is>
       </c>
       <c r="G263" t="n">
@@ -11344,7 +11543,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90  </t>
         </is>
       </c>
       <c r="G264" t="n">
@@ -11376,21 +11575,27 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>SELECT MAX(CMAX) 
+FROM CDC 
+WHERE CMAX NOT IN (888, 999)</t>
+        </is>
+      </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC </t>
+          <t xml:space="preserve">SELECT  CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC limit 1 </t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-1</v>
+        <v>170</v>
       </c>
       <c r="H265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11418,11 +11623,11 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1  </t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -11452,22 +11657,16 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SELECT COUNT(VEHNO) 
-FROM CDC 
-WHERE DAMOTHPILLAR = 1 AND VEHNO NOT IN (
-    SELECT VEHNO 
-    FROM CDC 
-    WHERE DAMOTHPILLAR IN (1, 2, 3)
-);</t>
+          <t>SELECT COUNT(VEHNO) FROM CDC WHERE DAMOTHPILLAR NOT IN (1, 2, 3)</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1  </t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -11497,18 +11696,16 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>SELECT AVG(DOORSILLDIFF) 
-FROM CDC 
-WHERE DOORSILLDIFF NOT IN (888, 999);</t>
+          <t>SELECT AVG(DOORSILLDIFF) FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999)</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H268" t="b">
         <v>1</v>
@@ -11536,21 +11733,27 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>SELECT MAX(DVBARRIER) 
+FROM CDC
+WHERE DVBARRIER != 999;</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC </t>
+          <t xml:space="preserve">SELECT  DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC limit 1 </t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="H269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11590,7 +11793,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G270" t="n">
@@ -11631,7 +11834,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10  </t>
         </is>
       </c>
       <c r="G271" t="n">
@@ -11665,19 +11868,19 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>SELECT e.CASEID, e.EDREVENTNO, COUNT(p.EDREVENTNO) 
-FROM EDREVENT e 
-LEFT JOIN EDRPRECRASH p ON e.CASEID = p.CASEID AND e.EDREVENTNO = p.EDREVENTNO 
-GROUP BY e.CASEID, e.EDREVENTNO</t>
+          <t>SELECT e1.CASEID, e1.EDREVENTNO, COUNT(e2.EDREVENTNO) 
+FROM EDREVENT e1 
+LEFT JOIN EDRPRECRASH e2 ON e1.CASEID = e2.CASEID AND e1.EDREVENTNO = e2.EDREVENTNO 
+GROUP BY e1.CASEID, e1.EDREVENTNO</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY CASEID </t>
+          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY EV.CASEID  </t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
@@ -11707,16 +11910,16 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>SELECT vp.Make, vp.Model, vp.ModelYear, ed.IGCYCRASH 
-FROM VPICDECODE vp
-JOIN EDREVENT ed ON vp.CASEID = ed.CASEID AND vp.VEHNO = ed.VEHNO
-WHERE ed.IGCYCRASH &lt; 200
-ORDER BY vp.ModelYear DESC;</t>
+          <t>SELECT VP.Make, VP.Model, VP.ModelYear, ED.IGCYCRASH 
+FROM EDREVENT ED 
+JOIN VPICDECODE VP ON ED.CASEID = VP.CASEID AND ED.VEHNO = VP.VEHNO
+WHERE ED.IGCYCRASH &lt; 200
+ORDER BY VP.ModelYear DESC;</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC  </t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -11750,18 +11953,16 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>SELECT COUNT(VEHNO) 
-FROM EDREVENT 
-WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400;</t>
+          <t>SELECT COUNT(VEHNO) FROM EDREVENT WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400  </t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H274" t="b">
         <v>0</v>
@@ -11798,7 +11999,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC  </t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -11833,18 +12034,17 @@
       <c r="E276" t="inlineStr">
         <is>
           <t>SELECT F.FUELTYPE, COUNT(DISTINCT F.CASEID) 
-FROM FUEL F
-JOIN FIRE FR ON F.CASEID = FR.CASEID AND F.VEHNO = FR.VEHNO
-GROUP BY F.FUELTYPE;</t>
+FROM FUEL F 
+GROUP BY F.FUELTYPE</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE </t>
+          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE  </t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H276" t="b">
         <v>0</v>
@@ -11877,12 +12077,12 @@
           <t>SELECT O.SEX, COUNT(E.CASEID) 
 FROM OCC O 
 JOIN EJECT E ON O.CASEID = E.CASEID AND O.VEHNO = E.VEHNO AND O.OCCNO = E.OCCNO
-GROUP BY O.SEX;</t>
+GROUP BY O.SEX</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX </t>
+          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX  </t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -11924,7 +12124,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC  </t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -11963,7 +12163,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1  </t>
         </is>
       </c>
       <c r="G279" t="n">
@@ -11995,21 +12195,29 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>SELECT EQUIP 
+FROM AVOID 
+GROUP BY EQUIP 
+ORDER BY COUNT(EQUIP) DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>-1</v>
+        <v>172</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -12032,18 +12240,18 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>SELECT COUNT(CASEID) 
+          <t>SELECT COUNT(DISTINCT VEHNO) 
 FROM AVOID 
 WHERE EQUIP &gt; 4;</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T  </t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -12073,16 +12281,16 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VEHNO) FROM TIREDAMAGE</t>
+          <t>SELECT COUNT(VEHNO) FROM TIREDAMAGE</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T  </t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H282" t="b">
         <v>0</v>
@@ -12112,16 +12320,16 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>SELECT COUNT(GVWR) FROM TIREPLAC WHERE GVWR &lt; 4000</t>
+          <t>SELECT COUNT(*) FROM TIREPLAC WHERE GVWR &lt; 4000</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000  </t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H283" t="b">
         <v>1</v>
@@ -12153,12 +12361,12 @@
         <is>
           <t>SELECT GAWRFRONT, GAWRREAR 
 FROM TIREPLAC 
-WHERE GVWR BETWEEN 4000 AND 9000</t>
+WHERE GVWR BETWEEN 4000 AND 9000;</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000 </t>
+          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000  </t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -12192,25 +12400,25 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>SELECT AVG(RECFRPRESS1) AS avg_recommended_front_pressure, AVG/RECRRPRESS1) AS avg_recommended_rear_pressure 
+          <t>SELECT AVG(RECFRPRESS1) AS avg_front_pressure, AVG(RECRRPRESS1) AS avg_rear_pressure 
 FROM TIREPLAC 
 WHERE GVWR &lt; 3000;</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000 </t>
+          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000  </t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -12240,7 +12448,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1  </t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -12275,25 +12483,25 @@
       <c r="E287" t="inlineStr">
         <is>
           <t>SELECT T.RECFRONT1, T.RECREAR1 
-FROM TIREPLAC T
-JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO
-WHERE V.Model = 'WRX';</t>
+FROM TIREPLAC T 
+JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO 
+WHERE V.Make = 'Subaru' AND V.Model = 'WRX'</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX' </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX'  </t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -12317,14 +12525,14 @@
       <c r="E288" t="inlineStr">
         <is>
           <t>SELECT T.RECFRONT1, T.RECFRPRESS1, T.RECREAR1, T.RECRRPRESS1 
-FROM TIREPLAC T
-JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO
-WHERE V.Make = 'HONDA' AND V.Model = 'CIVIC' AND V.ModelYear &lt; 2012;</t>
+FROM TIREPLAC T 
+JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO 
+WHERE V.Make = 'HONDA' AND V.Model = 'CIVIC' AND V.ModelYear &lt; 2012</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012  </t>
         </is>
       </c>
       <c r="G288" t="n">
@@ -12363,7 +12571,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G289" t="n">
@@ -12405,7 +12613,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -12447,7 +12655,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G291" t="n">
@@ -12482,8 +12690,8 @@
       <c r="E292" t="inlineStr">
         <is>
           <t>SELECT T1.TIREMODEL, COUNT(DISTINCT T1.VEHNO) 
-FROM TIRE T1 
-INNER JOIN TIREDAMAGE T2 
+FROM TIRE AS T1 
+INNER JOIN TIREDAMAGE AS T2 
 ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO 
 WHERE T2.DAMAGE != 0 AND T2.DAMAGE != 9 
 GROUP BY T1.TIREMODEL 
@@ -12492,11 +12700,11 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H292" t="b">
         <v>0</v>
@@ -12526,19 +12734,19 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>SELECT T1.CASEID, T1.VEHNO, T2.RECFRONT1 AS RECOMMENDED_TIRE_SIZE, T1.TIRESIZE AS ACTUAL_TIRE_SIZE
-FROM TIRE T1
+          <t>SELECT T1.CASEID, T1.VEHNO, T2.RECFRONT1, T1.TIRESIZE 
+FROM TIRE T1 
 JOIN TIREPLAC T2 ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
 WHERE T1.TIRELOC = 'LEFT FRONT' AND T1.TIRESIZE = T2.RECFRONT1</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1  </t>
         </is>
       </c>
       <c r="G293" t="n">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H293" t="b">
         <v>0</v>
@@ -12568,7 +12776,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SELECT T1.CASEID, T2.Make, T2.Model, T3.RECFRONT1 AS RecommendedTireSize, T1.TIRESIZE AS ActualTireSize
+          <t>SELECT T1.CASEID, T2.Make, T2.Model, T3.RECFRONT1 AS Recommended_Tire_Size, T1.TIRESIZE AS Actual_Tire_Size
 FROM TIRE T1
 JOIN VPICDECODE T2 ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
 JOIN TIREPLAC T3 ON T1.CASEID = T3.CASEID AND T1.VEHNO = T3.VEHNO
@@ -12577,7 +12785,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1  </t>
         </is>
       </c>
       <c r="G294" t="n">
@@ -12609,21 +12817,32 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>SELECT VPICDECODE.Make 
+FROM VPICDECODE 
+JOIN TIREPLAC ON VPICDECODE.CASEID = TIREPLAC.CASEID AND VPICDECODE.VEHNO = TIREPLAC.VEHNO
+JOIN TIRE ON TIREPLAC.CASEID = TIRE.CASEID AND TIREPLAC.VEHNO = TIRE.VEHNO AND TIRE.TIRELOC = 'LEFT FRONT'
+WHERE TIRE.TIRESIZE != TIREPLAC.RECFRONT1
+GROUP BY VPICDECODE.Make
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC </t>
+          <t xml:space="preserve">SELECT  MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC limit 1 </t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>-1</v>
+        <v>357</v>
       </c>
       <c r="H295" t="b">
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -12646,12 +12865,12 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SELECT COUNT(CASEID) FROM DISTRACT</t>
+          <t>SELECT COUNT(CASEID) FROM DISTRACT;</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D  </t>
         </is>
       </c>
       <c r="G296" t="n">
@@ -12685,19 +12904,18 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT T1.CASEID) 
-FROM CHILDSEAT T1 
-INNER JOIN DISTRACT T2 
-ON T1.CASEID = T2.CASEID;</t>
+          <t>SELECT COUNT(DISTINCT cs.CASEID) 
+FROM CHILDSEAT cs 
+JOIN DISTRACT d ON cs.CASEID = d.CASEID;</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID  </t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H297" t="b">
         <v>1</v>
@@ -12729,19 +12947,18 @@
         <is>
           <t>SELECT T1.Make, T1.Model, COUNT(T2.CASEID) as count
 FROM VPICDECODE T1
-INNER JOIN CHILDSEAT T2
-ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
+JOIN CHILDSEAT T2 ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
 GROUP BY T1.Make, T1.Model
 ORDER BY count DESC;</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC  </t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H298" t="b">
         <v>1</v>
@@ -12787,7 +13004,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC  </t>
         </is>
       </c>
       <c r="G299" t="n">
@@ -12821,8 +13038,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>SELECT T1.Make, 
-       CAST(SUM(CASE WHEN T2.DISTRACTN &gt; 0 THEN 1 ELSE 0 END) AS REAL) / COUNT(T1.CASEID) AS proportion
+          <t>SELECT T1.Make, CAST(SUM(CASE WHEN T2.DISTRACTN = 1 THEN 1 ELSE 0 END) AS REAL) / COUNT(T1.CASEID) AS proportion
 FROM VPICDECODE T1
 JOIN DISTRACT T2 ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
 GROUP BY T1.Make
@@ -12833,11 +13049,11 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC  </t>
         </is>
       </c>
       <c r="G300" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H300" t="b">
         <v>0</v>
@@ -12868,34 +13084,34 @@
       <c r="E301" t="inlineStr">
         <is>
           <t>SELECT 
-  v.Make, 
-  COUNT(f.CASEID) AS TotalCrashes,
-  SUM(CASE WHEN f.FIRE = 1 THEN 1 ELSE 0 END) AS CrashesWithFire,
-  CAST(SUM(CASE WHEN f.FIRE = 1 THEN 1 ELSE 0 END) AS REAL) / COUNT(f.CASEID) AS ProportionOf Fires
+    v.Make,
+    COUNT(DISTINCT f.CASEID) AS TotalCrashes,
+    SUM(CASE WHEN f.FIRE = 1 THEN 1 ELSE 0 END) AS CrashesWithFire,
+    CAST(SUM(CASE WHEN f.FIRE = 1 THEN 1 ELSE 0 END) AS REAL) / COUNT(DISTINCT f.CASEID) AS ProportionOfCrashesWithFire
 FROM 
-  VPICDECODE v
+    VPICDECODE v
 JOIN 
-  FIRE f ON v.CASEID = f.CASEID AND v.VEHNO = f.VEHNO
+    FIRE f ON v.CASEID = f.CASEID AND v.VEHNO = f.VEHNO
 GROUP BY 
-  v.Make
+    v.Make
 ORDER BY 
-  TotalCrashes DESC;</t>
+    TotalCrashes DESC;</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC  </t>
         </is>
       </c>
       <c r="G301" t="n">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H301" t="b">
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -12927,7 +13143,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%' </t>
+          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%'  </t>
         </is>
       </c>
       <c r="G302" t="n">
@@ -12968,7 +13184,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021  </t>
         </is>
       </c>
       <c r="G303" t="n">
@@ -13007,7 +13223,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022 </t>
+          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022  </t>
         </is>
       </c>
       <c r="G304" t="n">
@@ -13048,7 +13264,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022  </t>
         </is>
       </c>
       <c r="G305" t="n">
@@ -13083,28 +13299,28 @@
       <c r="E306" t="inlineStr">
         <is>
           <t>SELECT 
-  e.PUPIL_COUNT_TOT, 
-  e.FEDERAL_EXP, 
-  e.PER_FEDERAL_EXP, 
-  a.SUBGROUP_NAME, 
-  a.MEAN_SCORE
+    ep.PUPIL_COUNT_TOT, 
+    ep.FEDERAL_EXP, 
+    ep.PER_FEDERAL_EXP, 
+    am.SUBGROUP_NAME, 
+    am.MEAN_SCORE
 FROM 
-  Annual_EM_MATH a
+    Annual_EM_MATH am
 JOIN 
-  Expenditures_per_Pupil e ON a.ENTITY_CD = e.ENTITY_CD AND a.YEAR = e.YEAR
+    Expenditures_per_Pupil ep ON am.ENTITY_CD = ep.ENTITY_CD AND am.YEAR = ep.YEAR
 WHERE 
-  a.ASSESSMENT_NAME = 'MATH5' 
-  AND a.ENTITY_NAME = 'MONTESSORI MAGNET SCHOOL' 
-  AND a.YEAR = 2022</t>
+    am.ASSESSMENT_NAME = 'MATH5' 
+    AND am.YEAR = 2022 
+    AND am.ENTITY_NAME = 'MONTESSORI MAGNET SCHOOL'</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022  </t>
         </is>
       </c>
       <c r="G306" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H306" t="b">
         <v>1</v>
@@ -13136,14 +13352,14 @@
         <is>
           <t>SELECT 
   (SELECT RATE FROM ACC_HS_Participation_Rate 
-   WHERE ENTITY_NAME = 'Brooklyn Collegiate' AND SUBGROUP_NAME = 'All Students' AND YEAR = '2022') AS Participation_Rate,
+   WHERE ENTITY_NAME = 'Brooklyn Collegiate' AND YEAR = '2022' AND SUBGROUP_NAME = 'All Students') AS Participation_Rate,
   (SELECT GRAD_RATE FROM ACC_HS_Graduation_Rate 
-   WHERE ENTITY_NAME = 'Brooklyn Collegiate' AND SUBGROUP_NAME = 'All Students' AND YEAR = '2022') AS Graduation_Rate</t>
+   WHERE ENTITY_NAME = 'Brooklyn Collegiate' AND YEAR = '2022' AND SUBGROUP_NAME = 'All Students') AS Graduation_Rate</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022 </t>
+          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022  </t>
         </is>
       </c>
       <c r="G307" t="n">
@@ -13181,12 +13397,12 @@
 FROM ACC_EM_Chronic_Absenteeism 
 WHERE ENTITY_NAME = 'Kenney Middle School' 
 AND YEAR = '2021' 
-AND SUBGROUP_NAME = 'Students with Disabilities';</t>
+AND SUBGROUP_NAME = 'Students with Disabilities'</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities' </t>
+          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities'  </t>
         </is>
       </c>
       <c r="G308" t="n">
@@ -13221,28 +13437,28 @@
       <c r="E309" t="inlineStr">
         <is>
           <t>SELECT 
-    SUBGROUP_NAME,
-    TESTED,
-    PER_LEVEL1,
-    PER_LEVEL2,
-    PER_LEVEL3,
-    PER_LEVEL4,
+    SUBGROUP_NAME, 
+    TESTED, 
+    PER_LEVEL1, 
+    PER_LEVEL2, 
+    PER_LEVEL3, 
+    PER_LEVEL4, 
     PER_LEVEL5
 FROM 
     Annual_Regents_Exams
 WHERE 
-    ENTITY_NAME = 'LONGWOOD HIGH SCHOOL'
-    AND YEAR = 2022
-    AND SUBJECT = 'Regents Common Core Algebra I';</t>
+    ENTITY_NAME = 'LONGWOOD HIGH SCHOOL' 
+    AND YEAR = 2022 
+    AND SUBJECT = 'Regents Common Core Algebra I'</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I' </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I'  </t>
         </is>
       </c>
       <c r="G309" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H309" t="b">
         <v>1</v>
@@ -13272,26 +13488,19 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>SELECT 
-    a.OVERALL_STATUS, 
-    COUNT(DISTINCT a.ENTITY_CD) as num_public_schools
-FROM 
-    Accountability_Status a
-JOIN 
-    Institution_Grouping i ON a.ENTITY_CD = i.ENTITY_CD
-WHERE 
-    a.YEAR = '2022' AND i.GROUP_NAME = 'public school'
-GROUP BY 
-    a.OVERALL_STATUS</t>
+          <t>SELECT OVERALL_STATUS, COUNT(ENTITY_CD) 
+FROM Accountability_Status 
+WHERE YEAR = '2022' 
+GROUP BY OVERALL_STATUS;</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status </t>
+          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status  </t>
         </is>
       </c>
       <c r="G310" t="n">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -13323,23 +13532,23 @@
         <is>
           <t>SELECT OVERALL_STATUS, MADE_PROGRESS 
 FROM Accountability_Status 
-WHERE YEAR = '2022' AND ENTITY_NAME = 'BRONX CAREER AND COLLEGE PREP HS';</t>
+WHERE ENTITY_NAME = 'Bronx Career and College Prep HS' AND YEAR = '2022'</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022 </t>
+          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022  </t>
         </is>
       </c>
       <c r="G311" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H311" t="b">
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>empty result set</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13578,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities'  </t>
         </is>
       </c>
       <c r="G312" t="n">
@@ -13404,20 +13613,19 @@
       <c r="E313" t="inlineStr">
         <is>
           <t>SELECT DISTINCT T1.ENTITY_NAME 
-FROM ACC_EM_Core_and_Weighted_Performance T1
-JOIN Institution_Grouping T2 ON T1.ENTITY_CD = T2.ENTITY_CD
-WHERE T2.GROUP_NAME = 'public school' 
-AND T1.SUBGROUP_NAME &lt;&gt; 'students with disabilities'
-AND T1.ENTITY_NAME LIKE '%Elementary%';</t>
+FROM Institution_Grouping T1
+JOIN ACC_EM_Core_and_Weighted_Performance T2 ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE T1.GROUP_NAME = 'Public Elementary'
+AND T1.ENTITY_CD NOT IN (SELECT ENTITY_CD FROM ACC_EM_Core_and_Weighted_Performance WHERE SUBGROUP_NAME = 'Students with Disabilities')</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where not exists ( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities' and p.ENTITY_CD = q.ENTITY_CD ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where p.ENTITY_CD NOT IN( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities'  ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G313" t="n">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H313" t="b">
         <v>0</v>
@@ -13447,20 +13655,19 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT T1.ENTITY_CD)
+          <t>SELECT COUNT(DISTINCT T1.ENTITY_CD) 
 FROM ACC_EM_Core_and_Weighted_Performance T1
 JOIN Institution_Grouping T2 ON T1.ENTITY_CD = T2.ENTITY_CD
-WHERE T2.GROUP_NAME = 'public school'
-AND T1.SUBGROUP_NAME = 'multiracial'</t>
+WHERE T1.SUBGROUP_NAME = 'Multiracial' AND T2.GROUP_NAME = 'Public Elementary'</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="H314" t="b">
         <v>1</v>
@@ -13499,7 +13706,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%' </t>
+          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%'  </t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -13533,22 +13740,19 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT T1.ENTITY_CD) 
-FROM ACC_EM_ELP T1 
-INNER JOIN Institution_Grouping T2 
-ON T1.ENTITY_CD = T2.ENTITY_CD 
-WHERE T2.GROUP_NAME = 'public school' 
-AND T1.SUBGROUP_NAME = 'white' 
-AND T1.ELL_COUNT &gt; 0</t>
+          <t>SELECT COUNT(T1.ENTITY_CD) 
+FROM ACC_EM_ELP T1
+JOIN Institution_Grouping T2 ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE T1.SUBGROUP_NAME = 'White' AND T2.GROUP_NAME = 'Public Elementary'</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G316" t="n">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="H316" t="b">
         <v>1</v>
@@ -13585,7 +13789,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -13620,19 +13824,18 @@
       <c r="E318" t="inlineStr">
         <is>
           <t>SELECT COUNT(T1.ENTITY_CD) 
-FROM ACC_EM_NYSESLAT_for_Participation T1 
-INNER JOIN Institution_Grouping T2 
-ON T1.ENTITY_CD = T2.ENTITY_CD 
-WHERE T2.GROUP_NAME = 'public school' AND T1.NYSESLAT_PART = 0</t>
+FROM Institution_Grouping T1
+JOIN ACC_EM_NYSESLAT_for_Participation T2 ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE T1.GROUP_NAME = 'Public Elementary' AND T2.NYSESLAT_PART = 0</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G318" t="n">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="H318" t="b">
         <v>0</v>
@@ -13667,7 +13870,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation]  </t>
         </is>
       </c>
       <c r="G319" t="n">
@@ -13705,20 +13908,18 @@
 FROM ACC_EM_ELP T1 
 INNER JOIN Institution_Grouping T2 ON T1.ENTITY_CD = T2.ENTITY_CD 
 LEFT JOIN ACC_EM_NYSESLAT_for_Participation T3 ON T1.ENTITY_CD = T3.ENTITY_CD 
-WHERE T2.GROUP_NAME = 'public school' 
-AND T1.LEVEL = '2' 
-AND T1.SUBGROUP_NAME = 'All Students' 
-AND CAST(REPLACE(T1.ELL_COUNT, ',', '') AS REAL) &gt; 0 
-AND (T3.NYSESLAT_PART IS NULL OR T3.NYSESLAT_PART = 0)</t>
+WHERE T1.LEVEL = '2' AND T1.SUBGROUP_NAME = 'All Students' AND T1.ELL_COUNT != '0' 
+AND (T3.NYSESLAT_PART IS NULL OR T3.NYSESLAT_PART = 0) 
+AND T2.GROUP_NAME = 'Public Elementary'</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="H320" t="b">
         <v>0</v>
@@ -13749,10 +13950,10 @@
       <c r="E321" t="inlineStr">
         <is>
           <t>SELECT 
-    SUBJECT,
-    SUBGROUP_NAME,
-    RATE,
-    COHORT
+    SUBJECT, 
+    SUBGROUP_NAME, 
+    COHORT, 
+    RATE
 FROM 
     ACC_EM_Participation_Rate
 WHERE 
@@ -13761,11 +13962,11 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022  </t>
         </is>
       </c>
       <c r="G321" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H321" t="b">
         <v>0</v>
@@ -13795,19 +13996,19 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SELECT COUNT(T1.ENTITY_CD)
+          <t>SELECT COUNT(DISTINCT T1.ENTITY_CD) 
 FROM ACC_EM_Participation_Rate T1
 JOIN Institution_Grouping T2 ON T1.ENTITY_CD = T2.ENTITY_CD
-WHERE T2.GROUP_NAME = 'public school' AND T1.MET_95_PERCENT = 'Y'</t>
+WHERE T2.GROUP_NAME = 'Public Elementary' AND T1.MET_95_PERCENT = 'Y'</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="H322" t="b">
         <v>0</v>
@@ -13837,19 +14038,18 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SELECT AVG(CAST(REPLACE(RATE, 's', '') AS REAL)) 
-FROM ACC_EM_Participation_Rate
-JOIN Institution_Grouping ON ACC_EM_Participation_Rate.ENTITY_CD = Institution_Grouping.ENTITY_CD
-WHERE GROUP_NAME = 'public school' AND RATE != 's'</t>
+          <t>SELECT AVG(CAST(REPLACE(RATE, '%', '') AS REAL)) 
+FROM ACC_EM_Participation_Rate 
+WHERE RATE &lt;&gt; 's' AND ENTITY_CD IN (SELECT ENTITY_CD FROM Institution_Grouping WHERE GROUP_NAME = 'Public Elementary');</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="H323" t="b">
         <v>0</v>
@@ -13879,26 +14079,19 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SELECT 
-  ae.SUBJECT, 
-  AVG(CAST(REPLACE(ae.ABSENT_RATE, '%', '') AS REAL)) AS avg_chronic_absenteeism_rate
-FROM 
-  ACC_EM_Chronic_Absenteeism ae
-JOIN 
-  Institution_Grouping ig ON ae.ENTITY_CD = ig.ENTITY_CD
-WHERE 
-  ig.GROUP_NAME = 'public school' AND ae.ABSENT_RATE != 's'
-GROUP BY 
-  ae.SUBJECT</t>
+          <t>SELECT SUBJECT, AVG(CAST(REPLACE(ABSENT_RATE, '%', '') AS REAL)) 
+FROM ACC_EM_Chronic_Absenteeism 
+WHERE ABSENT_RATE != 's' AND ENTITY_CD LIKE '%PH%' 
+GROUP BY SUBJECT;</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject  </t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="H324" t="b">
         <v>0</v>
@@ -13926,21 +14119,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_NAME 
+FROM ACC_EM_Chronic_Absenteeism 
+WHERE SUBGROUP_NAME = 'Students with Disabilities' 
+  AND ABSENT_RATE &lt;&gt; 's' 
+ORDER BY CAST(REPLACE(ABSENT_RATE, '%', '') AS REAL) 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc </t>
+          <t xml:space="preserve">select  entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G325" t="n">
-        <v>-1</v>
+        <v>242</v>
       </c>
       <c r="H325" t="b">
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -13963,23 +14165,21 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>SELECT T1.ENTITY_NAME, T1.SUBGROUP_NAME, T1.ENROLLMENT
-FROM ACC_EM_Chronic_Absenteeism T1
-JOIN Institution_Grouping T2 ON T1.ENTITY_CD = T2.ENTITY_CD
-WHERE T2.GROUP_NAME = 'public school'
-AND T1.YEAR = '2022'
-AND T1.ABSENT_RATE &lt;&gt; 's'
-ORDER BY CAST(REPLACE(T1.ABSENT_RATE, '%', '') AS REAL) DESC
-LIMIT 1</t>
+          <t>SELECT ENTITY_NAME, SUBGROUP_NAME, ENROLLMENT 
+FROM ACC_EM_Chronic_Absenteeism 
+WHERE YEAR = '2022' AND ABSENT_RATE &lt;&gt; 's' 
+AND ENTITY_CD IN (SELECT ENTITY_CD FROM Institution_Grouping WHERE GROUP_NAME = 'Public Elementary') 
+ORDER BY ABSENT_RATE DESC 
+LIMIT 1;</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school' </t>
+          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school'  </t>
         </is>
       </c>
       <c r="G326" t="n">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
@@ -14010,28 +14210,23 @@
       <c r="E327" t="inlineStr">
         <is>
           <t>SELECT 
-    i.GROUP_NAME, 
-    a.SUBGROUP_NAME, 
-    AVG(CAST(REPLACE(a.ABSENT_RATE, '%', '') AS REAL)) AS avg_absent_rate
+    SUBGROUP_NAME, 
+    AVG(CAST(REPLACE(ABSENT_RATE, '%', '') AS REAL)) AS average_absent_rate
 FROM 
-    ACC_HS_Chronic_Absenteeism a
-JOIN 
-    Institution_Grouping i ON a.ENTITY_CD = i.ENTITY_CD
+    ACC_HS_Chronic_Absenteeism
 WHERE 
-    i.GROUP_NAME = 'public school'
-    AND a.ABSENT_RATE != 's'
+    ABSENT_RATE != 's' AND ENTITY_CD IN (SELECT ENTITY_CD FROM Institution_Grouping WHERE GROUP_NAME = 'Public High School')
 GROUP BY 
-    i.GROUP_NAME, 
-    a.SUBGROUP_NAME</t>
+    SUBGROUP_NAME;</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name  </t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>375</v>
+        <v>284</v>
       </c>
       <c r="H327" t="b">
         <v>0</v>
@@ -14059,21 +14254,34 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>SELECT T1.ENTITY_NAME, T1.ABSENT_COUNT, T1.ABSENT_RATE
+FROM ACC_HS_Chronic_Absenteeism T1
+INNER JOIN (
+    SELECT ENTITY_CD, MAX(ENROLLMENT) AS max_enrollment
+    FROM ACC_HS_Chronic_Absenteeism
+    WHERE YEAR = '2021' AND SUBGROUP_NAME = 'All students' AND ENROLLMENT != 's'
+    GROUP BY ENTITY_CD
+) T2
+ON T1.ENTITY_CD = T2.ENTITY_CD AND T1.ENROLLMENT = T2.max_enrollment
+WHERE T1.YEAR = '2021' AND T1.SUBGROUP_NAME = 'All students' AND T1.ENROLLMENT != 's'</t>
+        </is>
+      </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc </t>
+          <t xml:space="preserve">select  entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>-1</v>
+        <v>399</v>
       </c>
       <c r="H328" t="b">
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14098,16 +14306,19 @@
         <is>
           <t>SELECT CORE_COHORT, CORE_INDEX, WEIGHTED_COHORT, WEIGHTED_INDEX 
 FROM ACC_HS_Core_and_Weighted_Performance 
-WHERE ENTITY_NAME = 'Albany High School' AND YEAR = '2022' AND SUBJECT = 'Math' AND SUBGROUP_NAME = 'Economically Disadvantaged Students'</t>
+WHERE ENTITY_NAME = 'Albany High School' 
+AND YEAR = '2022' 
+AND SUBJECT = 'Math' 
+AND SUBGROUP_NAME = 'Economically Disadvantaged Students'</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H329" t="b">
         <v>0</v>
@@ -14135,21 +14346,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_NAME 
+FROM ACC_HS_Core_and_Weighted_Performance 
+WHERE YEAR = '2022' AND SUBJECT = 'Math' AND SUBGROUP_NAME = 'All Students'
+AND WEIGHTED_INDEX NOT LIKE '%s'
+ORDER BY REPLACE(WEIGHTED_INDEX, 's', '') DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc </t>
+          <t xml:space="preserve">select  p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc limit 5 </t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>-1</v>
+        <v>295</v>
       </c>
       <c r="H330" t="b">
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14170,14 +14390,24 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>SELECT T1.ENTITY_NAME, AVG(T2.WEIGHTED_INDEX) as avg_score
+FROM Institution_Grouping T1
+JOIN ACC_HS_Core_and_Weighted_Performance T2 ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE T2.SUBJECT = 'Science' AND T2.WEIGHTED_INDEX &lt;&gt; 's'
+GROUP BY T1.ENTITY_NAME
+ORDER BY avg_score ASC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc </t>
+          <t xml:space="preserve">select  entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc limit 5 </t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>-1</v>
+        <v>300</v>
       </c>
       <c r="H331" t="b">
         <v>0</v>
@@ -14214,7 +14444,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022 </t>
+          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022  </t>
         </is>
       </c>
       <c r="G332" t="n">
@@ -14249,25 +14479,23 @@
       <c r="E333" t="inlineStr">
         <is>
           <t>SELECT 
-  ACC_HS_ELP.SUBGROUP_NAME, 
-  AVG(CAST(ACC_HS_ELP.ELL_COUNT AS REAL)) AS avg_ell_count
+    AVG(CAST(REPLACE(ELL_COUNT, ',', '') AS REAL)) AS avg_ell_count,
+    SUBGROUP_NAME
 FROM 
-  ACC_HS_ELP
-JOIN 
-  Institution_Grouping ON ACC_HS_ELP.ENTITY_CD = Institution_Grouping.ENTITY_CD
+    ACC_HS_ELP
 WHERE 
-  Institution_Grouping.GROUP_NAME = 'public school'
+    ENTITY_CD IN (SELECT ENTITY_CD FROM Institution_Grouping WHERE GROUP_NAME = 'Public High Schools')
 GROUP BY 
-  ACC_HS_ELP.SUBGROUP_NAME</t>
+    SUBGROUP_NAME</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name  </t>
         </is>
       </c>
       <c r="G333" t="n">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="H333" t="b">
         <v>0</v>
@@ -14295,21 +14523,31 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>SELECT T1.ENTITY_NAME, T1.ELL_COUNT, T2.PER_FED_STATE_LOCAL_EXP 
+FROM ACC_HS_ELP T1
+INNER JOIN Expenditures_per_Pupil T2
+ON T1.ENTITY_CD = T2.ENTITY_CD AND T2.YEAR = 2022
+WHERE T1.SUBGROUP_NAME = 'All Students' AND T1.YEAR = '2022'
+ORDER BY T1.ELL_COUNT DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc </t>
+          <t xml:space="preserve">select  el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G334" t="n">
-        <v>-1</v>
+        <v>354</v>
       </c>
       <c r="H334" t="b">
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14332,7 +14570,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>SELECT YEAR, OVERALL_STATUS, COUNT(SUBGROUP_NAME) 
+          <t>SELECT YEAR, OVERALL_STATUS, COUNT(SUBGROUP_NAME) AS num_entities 
 FROM Accountability_Status_by_Subgroup 
 WHERE SUBGROUP_NAME = 'All Students' 
 GROUP BY YEAR, OVERALL_STATUS</t>
@@ -14340,11 +14578,11 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS </t>
+          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS  </t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H335" t="b">
         <v>1</v>
@@ -14374,25 +14612,25 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>SELECT COUNT(SUBGROUP_NAME) 
+          <t>SELECT COUNT(SCHOOL_TYPE) 
 FROM Accountability_Status_by_Subgroup 
-WHERE YEAR = '2021' AND SCHOOL_TYPE = 'HS' AND SUBGROUP_NAME = 'Multiracial'</t>
+WHERE YEAR = '2021' AND SCHOOL_TYPE = 'HS' AND SUBGROUP_NAME = 'Multiracial' AND ACCOUNTABILITY_STATUS = 'Good Standing'</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021 </t>
+          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14422,7 +14660,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD' </t>
+          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD'  </t>
         </is>
       </c>
       <c r="G337" t="n">
@@ -14457,26 +14695,26 @@
       <c r="E338" t="inlineStr">
         <is>
           <t>SELECT 
-  AVG(CAST(REPLACE(LEVEL1_%TESTED, 's', '') AS REAL)) AS avg_level1,
-  AVG(CAST(REPLACE(LEVEL2_%TESTED, 's', '') AS REAL)) AS avg_level2,
-  AVG(CAST(REPLACE(LEVEL3_%TESTED, 's', '') AS REAL)) AS avg_level3,
-  AVG(CAST(REPLACE(LEVEL4_%TESTED, 's', '') AS REAL)) AS avg_level4,
-  ASSESSMENT_NAME
+    ASSESSMENT_NAME,
+    AVG(CAST(REPLACE(LEVEL1_%TESTED, '%', '') AS REAL)) AS AVG_LEVEL1,
+    AVG(CAST(REPLACE(LEVEL2_%TESTED, '%', '') AS REAL)) AS AVG_LEVEL2,
+    AVG(CAST(REPLACE(LEVEL3_%TESTED, '%', '') AS REAL)) AS AVG_LEVEL3,
+    AVG(CAST(REPLACE(LEVEL4_%TESTED, '%', '') AS REAL)) AS AVG_LEVEL4
 FROM 
-  Annual_EM_SCIENCE
+    Annual_EM_SCIENCE
 WHERE 
-  ENTITY_CD IN (SELECT ENTITY_CD FROM Institution_Grouping WHERE GROUP_NAME = 'public school')
+    LEVEL1_%TESTED != 's' AND LEVEL2_%TESTED != 's' AND LEVEL3_%TESTED != 's' AND LEVEL4_%TESTED != 's'
 GROUP BY 
-  ASSESSMENT_NAME;</t>
+    ASSESSMENT_NAME</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME </t>
+          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME  </t>
         </is>
       </c>
       <c r="G338" t="n">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="H338" t="b">
         <v>0</v>
@@ -14507,29 +14745,30 @@
       <c r="E339" t="inlineStr">
         <is>
           <t>SELECT 
-  AVG(CAST(REPLACE(LEVEL1_%TESTED, 's', '') AS FLOAT)) AS LEVEL1_AVG,
-  AVG(CAST(REPLACE(LEVEL2_%TESTED, 's', '') AS FLOAT)) AS LEVEL2_AVG,
-  AVG(CAST(REPLACE(LEVEL3_%TESTED, 's', '') AS FLOAT)) AS LEVEL3_AVG,
-  AVG(CAST(REPLACE(LEVEL4_%TESTED, 's', '') AS FLOAT)) AS LEVEL4_AVG,
-  SUBGROUP_NAME
+    SUBGROUP_NAME,
+    AVG(CAST(REPLACE(LEVEL1_%TESTED, '%', '') AS REAL)) AS AVG_LEVEL1,
+    AVG(CAST(REPLACE(LEVEL2_%TESTED, '%', '') AS REAL)) AS AVG_LEVEL2,
+    AVG(CAST(REPLACE(LEVEL3_%TESTED, '%', '') AS REAL)) AS AVG_LEVEL3,
+    AVG(CAST(REPLACE(LEVEL4_%TESTED, '%', '') AS REAL)) AS AVG_LEVEL4
 FROM 
-  Annual_EM_SCIENCE
-  JOIN Institution_Grouping ON Annual_EM_SCIENCE.ENTITY_CD = Institution_Grouping.ENTITY_CD
+    Annual_EM_SCIENCE
 WHERE 
-  ASSESSMENT_NAME = 'Science8'
-  AND GROUP_NAME = 'public school'
-  AND (LEVEL1_%TESTED != 's' OR LEVEL2_%TESTED != 's' OR LEVEL3_%TESTED != 's' OR LEVEL4_%TESTED != 's')
+    ASSESSMENT_NAME = 'Science8'
+    AND LEVEL1_%TESTED != 's'
+    AND LEVEL2_%TESTED != 's'
+    AND LEVEL3_%TESTED != 's'
+    AND LEVEL4_%TESTED != 's'
 GROUP BY 
-  SUBGROUP_NAME</t>
+    SUBGROUP_NAME</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME  </t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>519</v>
+        <v>419</v>
       </c>
       <c r="H339" t="b">
         <v>0</v>
@@ -14564,7 +14803,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT]  </t>
         </is>
       </c>
       <c r="G340" t="n">
@@ -14600,19 +14839,19 @@
         <is>
           <t>SELECT PER_EXP 
 FROM Annual_NYSESLAT 
-WHERE ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 
-AND SUBJECT = 'TS_6' 
-AND SUBGROUP_NAME = 'Parent not in armed forces' 
-AND YEAR = 2021;</t>
+WHERE SUBJECT = 'TS_6' 
+AND YEAR = 2021 
+AND ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 
+AND SUBGROUP_NAME = 'Parent not in Armed Forces';</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G341" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H341" t="b">
         <v>0</v>
@@ -14650,19 +14889,19 @@
 FROM 
     Annual_NYSESLAT
 WHERE 
-    ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 
-    AND SUBJECT = 'TS_6'
-    AND SUBGROUP_NAME = 'Parent not in Armed Forces'
-    AND YEAR = 2021;</t>
+    YEAR = 2021 AND 
+    SUBJECT = 'TS_6' AND 
+    ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' AND 
+    SUBGROUP_NAME = 'Parent not in armed forces'</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G342" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H342" t="b">
         <v>0</v>
@@ -14693,27 +14932,23 @@
       <c r="E343" t="inlineStr">
         <is>
           <t>SELECT 
-    A.SUBJECT, 
-    AVG(CAST(REPLACE(A.PER_ENT, 's', '') AS FLOAT)) AS average_percent
+    SUBJECT, 
+    AVG(PER_ENT) AS Average_Percent
 FROM 
-    Annual_NYSESLAT A
-INNER JOIN 
-    Institution_Grouping I ON A.ENTITY_CD = I.ENTITY_CD
+    Annual_NYSESLAT
 WHERE 
-    I.GROUP_NAME = 'public school' AND 
-    A.YEAR = 2021 AND 
-    A.PER_ENT != 's'
+    YEAR = 2021 AND ENTITY_CD IN (SELECT ENTITY_CD FROM Institution_Grouping WHERE GROUP_NAME = 'Public Schools') AND PER_ENT != 's'
 GROUP BY 
-    A.SUBJECT</t>
+    SUBJECT</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G343" t="n">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
@@ -14745,34 +14980,33 @@
         <is>
           <t>SELECT 
     SUBJECT,
-    AVG(CAST(REPLACE(PER_ENT, 's', '') AS FLOAT)) AS AVG_ENTERING_LEVEL,
-    AVG(CAST(REPLACE(PER_EMER, 's', '') AS FLOAT)) AS AVG_EMERGING_LEVEL,
-    AVG(CAST(REPLACE(PER_TRAN, 's', '') AS FLOAT)) AS AVG_TRANSITIONING_LEVEL,
-    AVG(CAST(REPLACE(PER_EXP, 's', '') AS FLOAT)) AS AVG_EXPANDING_LEVEL,
-    AVG(CAST(REPLACE(PER_COM, 's', '') AS FLOAT)) AS AVG_COMMANDING_LEVEL
+    AVG(CAST(REPLACE(PER_ENT, '%', '') AS REAL)) AS avg_entering_level,
+    AVG(CAST(REPLACE(PER_EMER, '%', '') AS REAL)) AS avg_emerging_level,
+    AVG(CAST(REPLACE(PER_TRAN, '%', '') AS REAL)) AS avg_transitioning_level,
+    AVG(CAST(REPLACE(PER_EXP, '%', '') AS REAL)) AS avg_expanding_level,
+    AVG(CAST(REPLACE(PER_COM, '%', '') AS REAL)) AS avg_commanding_level
 FROM 
     Annual_NYSESLAT
 WHERE 
-    YEAR = 2021 AND ENTITY_CD IN (
-        SELECT ENTITY_CD FROM Institution_Grouping WHERE GROUP_NAME = 'public school'
-    ) AND PER_ENT != 's' AND PER_EMER != 's' AND PER_TRAN != 's' AND PER_EXP != 's' AND PER_COM != 's'
-GROUP BY SUBJECT</t>
+    YEAR = 2021 AND ENTITY_CD NOT LIKE 'S' AND SUBJECT NOT LIKE 's'
+GROUP BY 
+    SUBJECT;</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>516</v>
+        <v>405</v>
       </c>
       <c r="H344" t="b">
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14797,16 +15031,17 @@
         <is>
           <t>SELECT NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP 
 FROM Annual_NYSESLAT 
-WHERE YEAR = 2021 AND SUBJECT = 'TS_6' AND ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' AND SUBGROUP_NAME = 'Parent not in Armed Forces'</t>
+WHERE SUBJECT = 'TS_6' AND SUBGROUP_NAME = 'Parent not in armed forces' 
+AND ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' AND YEAR = 2021</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G345" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H345" t="b">
         <v>0</v>
@@ -14844,7 +15079,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G346" t="n">
@@ -14886,7 +15121,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G347" t="n">
@@ -14921,9 +15156,9 @@
       <c r="E348" t="inlineStr">
         <is>
           <t>SELECT 
-    B.BOCES_NAME, 
-    AVG(CAST(E.PER_FEDERAL_EXP AS FLOAT)) AS AVG_FEDERAL_EXP,
-    AVG(CAST(E.PER_STATE_LOCAL_EXP AS FLOAT)) AS AVG_STATE_LOCAL_EXP
+    B.BOSES_NAME, 
+    AVG(E.PER_FEDERAL_EXP) AS AVG_FEDERAL_EXP,
+    AVG(E.PER_STATE_LOCAL_EXP) AS AVG_STATE_LOCAL_EXP
 FROM 
     BOCES_and_N/RC B
 JOIN 
@@ -14931,16 +15166,16 @@
 WHERE 
     B.YEAR = 2021
 GROUP BY 
-    B.BOCES_NAME</t>
+    B.BOSES_NAME</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="H348" t="b">
         <v>0</v>
@@ -14975,7 +15210,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC] </t>
+          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC]  </t>
         </is>
       </c>
       <c r="G349" t="n">
@@ -15009,19 +15244,19 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>SELECT BOCES_NAME, COUNT(COUNTY_NAME) 
-FROM BOCES_and_N/RC 
+          <t>SELECT BOCES_NAME, COUNT(COUNTY_NAME) as num_counties 
+FROM BOCES_and_N_RC 
 GROUP BY BOCES_NAME 
 HAVING COUNT(COUNTY_NAME) &gt; 1</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1 </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1  </t>
         </is>
       </c>
       <c r="G350" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H350" t="b">
         <v>0</v>
@@ -15051,25 +15286,30 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>SELECT NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP 
-FROM Inexperienced_Teachers_and_Principals 
-WHERE ENTITY_NAME = 'SHERIDAN PREP ACADEMY' AND YEAR = 2021</t>
+          <t>SELECT 
+    NUM_TEACH, 
+    NUM_TEACH_INEXP, 
+    PER_TEACH_INEXP
+FROM 
+    Inexperienced_Teachers_and_Principals
+WHERE 
+    ENTITY_NAME = 'Sheridan Prep Academy' AND YEAR = 2021;</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021 </t>
+          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021  </t>
         </is>
       </c>
       <c r="G351" t="n">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15090,21 +15330,29 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_CD, ENTITY_NAME, PER_TEACH_INEXP 
+FROM Inexperienced_Teachers_and_Principals 
+WHERE YEAR = 2021 
+ORDER BY PER_TEACH_INEXP DESC 
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc </t>
+          <t xml:space="preserve">select  i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc limit 5 </t>
         </is>
       </c>
       <c r="G352" t="n">
-        <v>-1</v>
+        <v>253</v>
       </c>
       <c r="H352" t="b">
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15125,21 +15373,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>SELECT T1.DISTRICT_NAME, AVG(T2.PER_TEACH_INEXP) as avg_inexperienced_teachers
+FROM BOCES_and_N_RC T1
+JOIN Inexperienced_Teachers_and_Principals T2 ON T1.ENTITY_CD = T2.ENTITY_CD
+GROUP BY T1.DISTRICT_NAME
+ORDER BY avg_inexperienced_teachers DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc </t>
+          <t xml:space="preserve">select  DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc limit 5 </t>
         </is>
       </c>
       <c r="G353" t="n">
-        <v>-1</v>
+        <v>283</v>
       </c>
       <c r="H353" t="b">
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15162,17 +15419,17 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>SELECT (AVG(TOT_TEACH_LOW) + AVG(TOT_PRINC_LOW)) / 2 AS average_low_poverty_staff 
-FROM Inexperienced_Teachers_and_Principals;</t>
+          <t>SELECT (AVG(TOT_TEACH_LOW) + AVG(TOT_PRINC_LOW)) / 2 
+FROM Inexperienced_Teachers_and_Principals</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals] </t>
+          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals]  </t>
         </is>
       </c>
       <c r="G354" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H354" t="b">
         <v>0</v>
@@ -15202,22 +15459,19 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>SELECT 
-    SUM(CAST(OUT_4_YR_CNT AS INTEGER)) 
-FROM 
-    Postsecondary_Enrollment 
-WHERE 
-    ENTITY_NAME = 'Brocton Middle High School' 
-    AND SUBGROUP_NAME IN ('Male', 'Female');</t>
+          <t>SELECT SUM(OUT_4_YR_CNT) 
+FROM Postsecondary_Enrollment 
+WHERE ENTITY_NAME = 'Brocton Middle High School' 
+AND SUBGROUP_NAME IN ('Male', 'Female');</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL' </t>
+          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G355" t="n">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="H355" t="b">
         <v>1</v>
@@ -15248,20 +15502,20 @@
       <c r="E356" t="inlineStr">
         <is>
           <t>SELECT 
-  COUNT(*) AS total_graduate_count,
-  PER_NYS_PUB_2_YR AS percent_enrolled_nys_pub_2_yr,
-  PER_NYS_PUB_4_YR AS percent_enrolled_nys_pub_4_yr
+  COUNT(*) AS Total_Graduate_Count,
+  PER_NYS_PUB_2_YR AS Percent_Enrolled_in_NYS_Public_2_Yr,
+  PER_NYS_PUB_4_YR AS Percent_Enrolled_in_NYS_Public_4_Yr
 FROM Postsecondary_Enrollment
 WHERE YEAR = 2022 AND SUBGROUP_NAME = 'All Students' AND ENTITY_NAME = 'Oneida Senior High School'</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H356" t="b">
         <v>0</v>
@@ -15289,21 +15543,29 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>SELECT T.ENTITY_NAME 
+FROM Teachers_Teaching_Out_of_Certification T 
+WHERE T.YEAR = 2021 
+ORDER BY T.NUM_OUT_CERT DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc limit 1 </t>
         </is>
       </c>
       <c r="G357" t="n">
-        <v>-1</v>
+        <v>236</v>
       </c>
       <c r="H357" t="b">
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15333,7 +15595,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G358" t="n">
@@ -15367,24 +15629,19 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>SELECT 
-  B.county_name, 
-  SUM(T.num_out_cert) AS total_teachers_out_of_certification
-FROM 
-  BOCES_and_N/RC B
-JOIN 
-  Teachers_Teaching_Out_of_Certification T ON B.ENTITY_CD = T.ENTITY_CD
-GROUP BY 
-  B.county_name</t>
+          <t>SELECT B.county_name, SUM(T.num_out_cert) as total_teachers 
+FROM BOCES_and_N/RC B 
+JOIN Teachers_Teaching_Out_of_Certification T ON B.ENTITY_CD = T.ENTITY_CD 
+GROUP BY B.county_name</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G359" t="n">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="H359" t="b">
         <v>0</v>
@@ -15426,17 +15683,17 @@
     Total_Cohort_Regents_Exams
 WHERE 
     ENTITY_NAME = 'Waverly High School'
-    AND SUBJECT = '2017 Cohort'
+    AND COHORT = 2017
     AND SUBGROUP_NAME IN ('Male', 'Female')</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH' </t>
+          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH'  </t>
         </is>
       </c>
       <c r="G360" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H360" t="b">
         <v>0</v>
@@ -15464,21 +15721,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_NAME 
+FROM Total_Cohort_Regents_Exams 
+WHERE SUBJECT = 'Math' AND COHORT = 2017 AND SUBGROUP_NAME = 'All Students' 
+AND LEVEL4_%COHORT != 's' 
+ORDER BY CAST(REPLACE(LEVEL4_%COHORT, '%', '') AS REAL) DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 1 ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G361" t="n">
-        <v>-1</v>
+        <v>307</v>
       </c>
       <c r="H361" t="b">
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -15506,7 +15772,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH] </t>
+          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH]  </t>
         </is>
       </c>
       <c r="G362" t="n">
@@ -15540,14 +15806,17 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>SELECT COUNT(TOTAL_COUNT) 
+          <t>SELECT TOTAL_COUNT 
 FROM Annual_EM_SCIENCE 
-WHERE YEAR = 2021 AND SUBGROUP_NAME = 'Male' AND ASSESSMENT_NAME = 'Science4' AND ENTITY_NAME = 'FORTS FERRY SCHOOL'</t>
+WHERE SUBGROUP_NAME = 'Male' 
+AND ASSESSMENT_NAME = 'Science4' 
+AND YEAR = 2021 
+AND ENTITY_NAME = 'FORTS FERRY SCHOOL'</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL' </t>
+          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL'  </t>
         </is>
       </c>
       <c r="G363" t="n">
@@ -15579,21 +15848,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_NAME 
+FROM Postsecondary_Enrollment 
+WHERE YEAR = 2022 AND PER_OUT_4_YR &lt;&gt; 's' 
+AND ENTITY_NAME LIKE '%Public%' 
+ORDER BY CAST(REPLACE(PER_OUT_4_YR, '%', '') AS REAL) DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>-1</v>
+        <v>280</v>
       </c>
       <c r="H364" t="b">
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15621,7 +15899,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as station_count  from tbl_stations </t>
+          <t xml:space="preserve">select count(*) as station_count  from tbl_stations  </t>
         </is>
       </c>
       <c r="G365" t="n">
@@ -15660,7 +15938,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Island) from tbl_locations </t>
+          <t xml:space="preserve">select count(distinct Island) from tbl_locations  </t>
         </is>
       </c>
       <c r="G366" t="n">
@@ -15694,14 +15972,14 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>SELECT Island, COUNT(Site_ID) AS Number_of_Sites
-FROM tbl_Locations
+          <t>SELECT Island, COUNT(Site_ID) AS Number_of_Sites 
+FROM tbl_Locations 
 GROUP BY Island;</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island </t>
+          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island  </t>
         </is>
       </c>
       <c r="G367" t="n">
@@ -15740,7 +16018,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8 </t>
+          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8  </t>
         </is>
       </c>
       <c r="G368" t="n">
@@ -15781,7 +16059,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id </t>
+          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id  </t>
         </is>
       </c>
       <c r="G369" t="n">
@@ -15822,7 +16100,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization </t>
+          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization  </t>
         </is>
       </c>
       <c r="G370" t="n">
@@ -15861,7 +16139,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo' </t>
+          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo'  </t>
         </is>
       </c>
       <c r="G371" t="n">
@@ -15902,7 +16180,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith' </t>
+          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith'  </t>
         </is>
       </c>
       <c r="G372" t="n">
@@ -15936,19 +16214,20 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>SELECT COUNT(o.Species_ID) 
-FROM tbl_Observations o
-JOIN tlu_Species s ON o.Species_ID = s.Species_ID
-WHERE s.Habitat = 'Forest'</t>
+          <t>SELECT COUNT(to2.Species_ID) 
+FROM tlu_Species AS t1 
+INNER JOIN tbl_Observations AS to2 
+ON t1.Species_ID = to2.Species_ID 
+WHERE t1.Habitat = 'Forest'</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G373" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H373" t="b">
         <v>0</v>
@@ -15978,27 +16257,26 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>SELECT tlu_Habitat, COUNT(tbl_Observations.Species_ID) 
-FROM tlu_Species 
-INNER JOIN tbl_Observations 
-ON tlu_Species.Species_ID = tbl_Observations.Species_ID
-GROUP BY tlu_Habitat;</t>
+          <t>SELECT tlu.Habitat, COUNT(tbl.Species_ID) 
+FROM tlu_Species tlu 
+JOIN tbl_Observations tbl ON tlu.Species_ID = tbl.Species_ID 
+GROUP BY tlu.Habitat;</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat </t>
+          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat  </t>
         </is>
       </c>
       <c r="G374" t="n">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16021,19 +16299,23 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>SELECT Event_ID 
-FROM tbl_Observations 
-GROUP BY Event_ID 
-HAVING COUNT(Event_ID) &gt; 7;</t>
+          <t>SELECT t1.Event_ID 
+FROM tbl_Events t1 
+JOIN (
+    SELECT Event_ID, COUNT(*) as count 
+    FROM tbl_Observations 
+    GROUP BY Event_ID
+) t2 ON t1.Event_ID = t2.Event_ID
+WHERE t2.count &gt; 7;</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7 </t>
+          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7  </t>
         </is>
       </c>
       <c r="G375" t="n">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="H375" t="b">
         <v>1</v>
@@ -16061,21 +16343,34 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>SELECT T1.Scientific_Name, T1.Common_Name 
+FROM tlu_Species AS T1
+JOIN (
+    SELECT Species_ID, COUNT(*) as Observation_Count
+    FROM tbl_Observations
+    GROUP BY Species_ID
+    ORDER BY Observation_Count DESC
+    LIMIT 3
+) AS T2
+ON T1.Species_ID = T2.Species_ID</t>
+        </is>
+      </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 3 scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc </t>
+          <t xml:space="preserve">select  scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc limit 3 </t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>-1</v>
+        <v>252</v>
       </c>
       <c r="H376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16096,21 +16391,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>SELECT Understory_Comp, Canopy_Comp, COUNT(*) as count
+FROM tbl_Habitat
+WHERE Event_ID IN (SELECT Event_ID FROM tbl_Events WHERE Entered_by = 'Caitlin Jensen')
+GROUP BY Understory_Comp, Canopy_Comp
+ORDER BY count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc </t>
+          <t xml:space="preserve">select  canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G377" t="n">
-        <v>-1</v>
+        <v>251</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -16134,14 +16438,14 @@
       <c r="E378" t="inlineStr">
         <is>
           <t>SELECT ted.Cloud, ted.Rain, ted.Wind, ted.Gust 
-FROM tbl_Events te 
-JOIN tbl_Event_Details ted ON te.Event_ID = ted.Event_ID 
+FROM tbl_Events te
+JOIN tbl_Event_Details ted ON te.Event_ID = ted.Event_ID
 WHERE te.Entered_by = 'Cari Squibb' AND te.Updated_by = 'Seth Judge'</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb' </t>
+          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb'  </t>
         </is>
       </c>
       <c r="G378" t="n">
@@ -16181,12 +16485,12 @@
     FROM tbl_Detections
     GROUP BY Observation_ID
 )
-WHERE num_detections &gt; 15;</t>
+WHERE num_detections &gt; 15</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t </t>
+          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t  </t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -16225,7 +16529,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections </t>
+          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections  </t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -16257,21 +16561,30 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>SELECT T2.Common_Name 
+FROM tbl_Detections AS T1 
+JOIN tbl_Observations AS T3 ON T1.Observation_ID = T3.Observation_ID 
+JOIN tlu_Species AS T2 ON T3.Species_ID = T2.Species_ID 
+ORDER BY T1.Distance DESC 
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc </t>
+          <t xml:space="preserve">select  common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc limit 1 </t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="H381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16303,7 +16616,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae' </t>
+          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae'  </t>
         </is>
       </c>
       <c r="G382" t="n">
@@ -16342,7 +16655,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct source from tlu_species </t>
+          <t xml:space="preserve">select distinct source from tlu_species  </t>
         </is>
       </c>
       <c r="G383" t="n">
@@ -16385,7 +16698,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631 </t>
+          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631  </t>
         </is>
       </c>
       <c r="G384" t="n">
@@ -16426,7 +16739,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart' </t>
+          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart'  </t>
         </is>
       </c>
       <c r="G385" t="n">
@@ -16467,7 +16780,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id </t>
+          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id  </t>
         </is>
       </c>
       <c r="G386" t="n">
@@ -16501,18 +16814,16 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>SELECT Island 
-FROM tbl_Locations 
-WHERE Loc_Name = 'Northwest Kahuku'</t>
+          <t>SELECT Island FROM tbl_Locations WHERE Loc_Name = 'Northwest Kahuku'</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku' </t>
+          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku'  </t>
         </is>
       </c>
       <c r="G387" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H387" t="b">
         <v>1</v>
@@ -16549,7 +16860,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G388" t="n">
@@ -16584,14 +16895,14 @@
       <c r="E389" t="inlineStr">
         <is>
           <t>SELECT 
-  SUM(CASE WHEN Datum = 'WGS84' THEN 1 ELSE 0 END) AS WGS84_Count,
-  SUM(CASE WHEN Datum = 'NAD83' THEN 1 ELSE 0 END) AS NAD83_Count
+    SUM(CASE WHEN Datum = 'WGS84' THEN 1 ELSE 0 END) AS WGS84_Count,
+    SUM(CASE WHEN Datum = 'NAD83' THEN 1 ELSE 0 END) AS NAD83_Count
 FROM tbl_Stations_UTMs;</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum </t>
+          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum  </t>
         </is>
       </c>
       <c r="G389" t="n">
@@ -16625,27 +16936,26 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>SELECT COUNT(T2.Event_ID) 
-FROM tbl_Event_Details T1 
-INNER JOIN tbl_Observations T2 
-ON T1.Event_ID = T2.Event_ID 
-WHERE T1.Cloud = 0;</t>
+          <t>SELECT COUNT(DISTINCT o.Event_ID) 
+FROM tbl_Event_Details e 
+JOIN tbl_Observations o ON e.Event_ID = o.Event_ID 
+WHERE e.Cloud = 0;</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0 </t>
+          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0  </t>
         </is>
       </c>
       <c r="G390" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -16675,7 +16985,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details ) </t>
+          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details )  </t>
         </is>
       </c>
       <c r="G391" t="n">
@@ -16709,62 +17019,72 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>SELECT T1.Island, COUNT(T3.Transect_ID) 
+          <t>SELECT T2.Island, COUNT(T3.Transect_ID) 
+FROM tbl_Transect T1
+JOIN tbl_Locations T2 ON T1.Location_ID = T2.Location_ID
+JOIN tbl_Stations T3 ON T1.Transect_ID = T3.Transect_ID
+GROUP BY T2.Island</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island  </t>
+        </is>
+      </c>
+      <c r="G392" t="n">
+        <v>244</v>
+      </c>
+      <c r="H392" t="b">
+        <v>1</v>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>full tuple compare succeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>28</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>llama3.3</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>SELECT T1.Island, COUNT(T3.Transect_ID) as num_stations
 FROM tbl_Locations T1
 JOIN tbl_Transect T2 ON T1.Location_ID = T2.Location_ID
 JOIN tbl_Stations T3 ON T2.Transect_ID = T3.Transect_ID
-GROUP BY T1.Island</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island </t>
-        </is>
-      </c>
-      <c r="G392" t="n">
-        <v>244</v>
-      </c>
-      <c r="H392" t="b">
-        <v>1</v>
-      </c>
-      <c r="I392" t="inlineStr">
-        <is>
-          <t>full tuple compare succeeded</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>PacificIslandLandbirds</t>
-        </is>
-      </c>
-      <c r="C393" t="n">
-        <v>28</v>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>llama3.3</t>
-        </is>
-      </c>
-      <c r="E393" t="inlineStr"/>
+GROUP BY T1.Island
+ORDER BY num_stations ASC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc </t>
+          <t xml:space="preserve">select  Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc limit 1 </t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>-1</v>
+        <v>267</v>
       </c>
       <c r="H393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16787,20 +17107,20 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT t2.Family, t2.Species_Code 
-FROM tbl_Observations t1 
-JOIN tlu_Species t2 ON t1.Species_ID = t2.Species_ID 
-JOIN tbl_Event_Details t3 ON t1.Event_ID = t3.Event_ID 
-WHERE t3.Rain = 1</t>
+          <t>SELECT DISTINCT tlu_Species.Family, tlu_Species.Species_Code 
+FROM tlu_Species 
+JOIN tbl_Observations ON tlu_Species.Species_ID = tbl_Observations.Species_ID 
+JOIN tbl_Event_Details ON tbl_Observations.Event_ID = tbl_Event_Details.Event_ID 
+WHERE tbl_Event_Details.Rain = 1</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1 </t>
+          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1  </t>
         </is>
       </c>
       <c r="G394" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H394" t="b">
         <v>1</v>
@@ -16830,17 +17150,17 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT t2.Scientific_Name, t2.Common_Name 
-FROM xref_Event_Contacts t1 
-JOIN tbl_Observations t3 ON t1.Event_ID = t3.Event_ID 
-JOIN tlu_Species t2 ON t3.Species_ID = t2.Species_ID 
-JOIN tlu_Contacts t4 ON t1.Contact_ID = t4.Contact_ID 
+          <t>SELECT DISTINCT t2.Scientific_Name, t2.Common_Name
+FROM xref_Event_Contacts t1
+JOIN tbl_Observations t3 ON t1.Event_ID = t3.Event_ID
+JOIN tlu_Species t2 ON t3.Species_ID = t2.Species_ID
+JOIN tlu_Contacts t4 ON t1.Contact_ID = t4.Contact_ID
 WHERE t4.First_Name = 'Patrick' AND t4.Last_Name = 'Hart'</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name </t>
+          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -16889,16 +17209,17 @@
 WHERE 
     ts.Station_ID IN ('2', '3')
 GROUP BY 
-    ts.Station, sp.Common_Name</t>
+    ts.Station, 
+    sp.Common_Name</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station </t>
+          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station  </t>
         </is>
       </c>
       <c r="G396" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H396" t="b">
         <v>0</v>
@@ -16937,7 +17258,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc </t>
+          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc  </t>
         </is>
       </c>
       <c r="G397" t="n">
@@ -16969,21 +17290,28 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>SELECT Station, Lat_final, Long_final 
+FROM tbl_Stations 
+ORDER BY Lat_final DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 lat_final, long_final, Station  from tbl_stations order by lat_final desc </t>
+          <t xml:space="preserve">select  lat_final, long_final, Station  from tbl_stations order by lat_final desc limit 1 </t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>-1</v>
+        <v>179</v>
       </c>
       <c r="H398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17344,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi' </t>
+          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi'  </t>
         </is>
       </c>
       <c r="G399" t="n">
@@ -17052,26 +17380,24 @@
         <is>
           <t>SELECT 
     CAST(
-        SUM(CASE WHEN t2.Species_ID IS NOT NULL THEN 1 ELSE 0 END)
-        AS REAL
-    ) * 100 / COUNT(t1.Station_ID) 
-FROM 
-    tbl_Stations t1
-LEFT JOIN 
-    tbl_Events t3 ON t1.Station_ID = t3.Station_ID
-LEFT JOIN 
-    tbl_Observations t4 ON t3.Event_ID = t4.Event_ID
-LEFT JOIN 
-    tlu_Species t2 ON t4.Species_ID = t2.Species_ID AND t2.Common_Name = 'Hawaii Amakihi'</t>
+        SUM(CASE WHEN t2.Species_ID IN (
+            SELECT t3.Species_ID 
+            FROM tlu_Species t3 
+            WHERE t3.Common_Name = 'Hawaii Amakihi'
+        ) THEN 1 ELSE 0 END) 
+        AS REAL) * 100 / COUNT(DISTINCT t1.Station_ID) 
+    AS percentage
+FROM tbl_Events t1
+JOIN tbl_Observations t2 ON t1.Event_ID = t2.Event_ID</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings </t>
+          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings  </t>
         </is>
       </c>
       <c r="G400" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="H400" t="b">
         <v>0</v>
@@ -17101,17 +17427,16 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>SELECT T1.First_Name, T1.Last_Name, COUNT(T2.Contact_ID) 
-FROM tlu_Contacts AS T1
-LEFT JOIN xref_Event_Contacts AS T2
-ON T1.Contact_ID = T2.Contact_ID
+          <t>SELECT T1.First_Name, T1.Last_Name, COUNT(T2.Contact_ID) as num_events
+FROM tlu_Contacts T1
+LEFT JOIN xref_Event_Contacts T2 ON T1.Contact_ID = T2.Contact_ID
 WHERE T1.Organization = 'National Park Service'
 GROUP BY T1.First_Name, T1.Last_Name</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc </t>
+          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc  </t>
         </is>
       </c>
       <c r="G401" t="n">
@@ -17146,91 +17471,114 @@
       <c r="E402" t="inlineStr">
         <is>
           <t>SELECT 
-  tlu_Species.Common_Name, 
-  tlu_Species.Scientific_Name, 
-  AVG(tbl_Habitat.Canopy_Height) AS Average_Canopy_Height
+  t2.Common_Name, 
+  t2.Scientific_Name, 
+  AVG(t1.Canopy_Height) AS Average_Canopy_Height
+FROM 
+  tbl_Habitat t1
+JOIN 
+  tbl_Observations t3 ON t1.Event_ID = t3.Event_ID
+JOIN 
+  tlu_Species t2 ON t3.Species_ID = t2.Species_ID
+GROUP BY 
+  t2.Common_Name, 
+  t2.Scientific_Name</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name  </t>
+        </is>
+      </c>
+      <c r="G402" t="n">
+        <v>323</v>
+      </c>
+      <c r="H402" t="b">
+        <v>1</v>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>full tuple compare succeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>38</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>llama3.3</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>SELECT 
+  t2.Island,
+  t6.Site_Name,
+  t2.Loc_Name,
+  t5.Transect,
+  t5.Transect_Type,
+  t7.Station,
+  t7.Lat_final,
+  t1.Event_ID,
+  GROUP_CONCAT(t9.Last_Name, ', ') AS Observers,
+  t1.Event_Notes,
+  t8.Family,
+  t8.Scientific_Name,
+  t8.Common_Name,
+  xref_Species_Alternate_Names.Alternate_Name
 FROM 
   tbl_Observations
 JOIN 
-  tlu_Species ON tbl_Observations.Species_ID = tlu_Species.Species_ID
+  tbl_Events t1 ON tbl_Observations.Event_ID = t1.Event_ID
 JOIN 
-  tbl_Habitat ON tbl_Observations.Event_ID = tbl_Habitat.Event_ID
+  tbl_Locations t2 ON t1.Station_ID = (SELECT Station_ID FROM tbl_Stations WHERE Transect_ID = (SELECT Transect_ID FROM tbl_Transect WHERE Location_ID = t2.Location_ID))
+JOIN 
+  xref_Event_Contacts ON t1.Event_ID = xref_Event_Contacts.Event_ID
+JOIN 
+  tlu_Species t8 ON tbl_Observations.Species_ID = t8.Species_ID
+JOIN 
+  tbl_Transect t5 ON t2.Location_ID = t5.Location_ID
+JOIN 
+  tbl_Sites t6 ON t2.Site_ID = t6.Site_ID
+JOIN 
+  tbl_Stations t7 ON t5.Transect_ID = t7.Transect_ID
+JOIN 
+  tlu_Contacts t9 ON xref_Event_Contacts.Contact_ID = t9.Contact_ID
+LEFT JOIN 
+  xref_Species_Alternate_Names ON t8.Species_ID = xref_Species_Alternate_Names.Species_ID
 GROUP BY 
-  tlu_Species.Common_Name, 
-  tlu_Species.Scientific_Name</t>
-        </is>
-      </c>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name </t>
-        </is>
-      </c>
-      <c r="G402" t="n">
-        <v>335</v>
-      </c>
-      <c r="H402" t="b">
-        <v>1</v>
-      </c>
-      <c r="I402" t="inlineStr">
-        <is>
-          <t>full tuple compare succeeded</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>PacificIslandLandbirds</t>
-        </is>
-      </c>
-      <c r="C403" t="n">
-        <v>38</v>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>llama3.3</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr">
-        <is>
-          <t>SELECT 
-  L.Island,
-  S.Site_Name,
-  Lo.Loc_Name,
-  T.Transect,
-  T.Transect_Type,
-  St.Station,
-  St.Lat_final,
-  E.Event_ID,
-  C.Last_Name,
-  E.Event_Notes,
-  Sp.Family,
-  Sp.Scientific_Name,
-  Sp.Common_Name,
-  SA.Alternate_Name
-FROM 
-  tbl_Observations O
-  JOIN tlu_Species Sp ON O.Species_ID = Sp.Species_ID
-  LEFT JOIN xref_Species_Alternate_Names SA ON Sp.Species_ID = SA.Species_ID
-  JOIN tbl_Events E ON O.Event_ID = E.Event_ID
-  JOIN xref_Event_Contacts EC ON E.Event_ID = EC.Event_ID
-  JOIN tlu_Contacts C ON EC.Contact_ID = C.Contact_ID
-  JOIN tbl_Stations St ON E.Station_ID = St.Station_ID
-  JOIN tbl_Transect T ON St.Transect_ID = T.Transect_ID
-  JOIN tbl_Locations Lo ON T.Location_ID = Lo.Location_ID
-  JOIN tbl_Sites S ON Lo.Site_ID = S.Site_ID</t>
+  t2.Island,
+  t6.Site_Name,
+  t2.Loc_Name,
+  t5.Transect,
+  t5.Transect_Type,
+  t7.Station,
+  t7.Lat_final,
+  t1.Event_ID,
+  t1.Event_Notes,
+  t8.Family,
+  t8.Scientific_Name,
+  t8.Common_Name,
+  xref_Species_Alternate_Names.Alternate_Name</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID </t>
+          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID  </t>
         </is>
       </c>
       <c r="G403" t="n">
-        <v>652</v>
+        <v>854</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
@@ -17258,21 +17606,33 @@
           <t>llama3.3</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>SELECT T3.Island 
+FROM tlu_Species AS T1
+JOIN tbl_Observations AS T2 ON T1.Species_ID = T2.Species_ID
+JOIN tbl_Events AS T4 ON T2.Event_ID = T4.Event_ID
+JOIN tbl_Locations AS T3 ON T4.Station_ID = (SELECT T5.Station_ID FROM tbl_Stations AS T5 WHERE T5.Transect_ID = (SELECT T6.Transect_ID FROM tbl_Transect AS T6 WHERE T6.Location_ID = T3.Location_ID))
+WHERE T1.Common_Name = 'Pacific Kingfisher'
+GROUP BY T3.Island
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count </t>
+          <t xml:space="preserve">select  island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count limit 1 </t>
         </is>
       </c>
       <c r="G404" t="n">
-        <v>-1</v>
+        <v>412</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -17336,8 +17696,7 @@
         <is>
           <t>SELECT T1.PayeeName, T1.PayeeZip, T1.PayeeCity, T1.PayeeStree, T1.PayCountry, T1.PayeeState 
 FROM OPEX AS T1
-INNER JOIN OUDP AS T2
-ON T1.Department = T2.Code
+INNER JOIN OUDP AS T2 ON T1.Department = T2.Code
 WHERE T2.Name = 'General'</t>
         </is>
       </c>
@@ -17347,7 +17706,7 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H406" t="b">
         <v>1</v>
@@ -17381,7 +17740,7 @@
 FROM OCHO O 
 JOIN CHO1 C ON O.CheckKey = C.CheckKey 
 GROUP BY O.AcctNum 
-HAVING COUNT(O.CheckKey) &gt; 1;</t>
+HAVING COUNT(O.CheckKey) &gt; 1</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -17422,7 +17781,7 @@
         <is>
           <t>SELECT Deduction, DdctPrcnt 
 FROM OCHO 
-WHERE AcctNum = '100-3443-7867';</t>
+WHERE AcctNum = '100-3443-7867'</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -17463,7 +17822,7 @@
         <is>
           <t>SELECT CardCode, CardName, Address, TrsfrSumFC 
 FROM ORCT 
-WHERE STRFTIME('%Y', CreateDate) = '2012' AND DocCurr = 'EUR'</t>
+WHERE strftime('%Y', CreateDate) = '2012' AND DocCurr = 'EUR'</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -17472,7 +17831,7 @@
         </is>
       </c>
       <c r="G409" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H409" t="b">
         <v>0</v>
@@ -17583,9 +17942,10 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>SELECT AVG(FirstSum) 
-FROM RCT3 
-WHERE DocNum IN (SELECT DocNum FROM ORCT);</t>
+          <t>SELECT AVG(T1.FirstSum) 
+FROM RCT3 AS T1 
+INNER JOIN ORCT AS T2 
+ON T1.DocNum = T2.DocNum;</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -17594,7 +17954,7 @@
         </is>
       </c>
       <c r="G412" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H412" t="b">
         <v>1</v>
@@ -17624,7 +17984,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>SELECT RctAbs, DepNum, CardCode 
+          <t>SELECT DepNum, RctAbs, CardCode 
 FROM OCRH 
 WHERE DeposDate = '2012-01-31'</t>
         </is>
@@ -17667,7 +18027,7 @@
         <is>
           <t>SELECT ExtraDays, InstNum, VATFirst 
 FROM OCTG 
-WHERE PymntGroup = 'Net30'</t>
+WHERE PymntGroup = 'Net30';</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -17708,7 +18068,7 @@
         <is>
           <t>SELECT T2.GroupName, COUNT(T1.GroupCode) 
 FROM OCRD T1 
-JOIN OCRG T2 ON T1.GroupCode = T2.GroupCode 
+INNER JOIN OCRG T2 ON T1.GroupCode = T2.GroupCode 
 GROUP BY T2.GroupName</t>
         </is>
       </c>
@@ -17718,7 +18078,7 @@
         </is>
       </c>
       <c r="G415" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H415" t="b">
         <v>1</v>
@@ -17750,7 +18110,7 @@
         <is>
           <t>SELECT Name, Address, Cellolar, E_MailL 
 FROM OCPR 
-WHERE Position = 'CEO' OR Position = 'COO'</t>
+WHERE Position = 'CEO' OR Position = 'COO';</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -17917,8 +18277,9 @@
       <c r="E420" t="inlineStr">
         <is>
           <t>SELECT T1.PymCode, T2.TaxCode 
-FROM OCRD T1 
-INNER JOIN CRD1 T2 ON T1.CardCode = T2.CardCode 
+FROM OCRD AS T1 
+INNER JOIN CRD1 AS T2 
+ON T1.CardCode = T2.CardCode 
 WHERE T1.CDPNum &lt; 35</t>
         </is>
       </c>
@@ -17928,7 +18289,7 @@
         </is>
       </c>
       <c r="G420" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H420" t="b">
         <v>1</v>
@@ -18000,9 +18361,8 @@
       <c r="E422" t="inlineStr">
         <is>
           <t>SELECT T1.BankCode, T1.Country, T1.Account, T1.Branch, T1.City 
-FROM OCRB AS T1 
-INNER JOIN OCRD AS T2 
-ON T1.CardCode = T2.CardCode 
+FROM OCRB T1 
+INNER JOIN OCRD T2 ON T1.CardCode = T2.CardCode 
 WHERE T2.CardName = 'Microchips'</t>
         </is>
       </c>
@@ -18012,7 +18372,7 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H422" t="b">
         <v>0</v>
@@ -18044,8 +18404,7 @@
         <is>
           <t>SELECT Balance 
 FROM OCRD 
-WHERE PymCode = 'Incoming BT' 
-AND Currency IN ('EUR', 'CAN')</t>
+WHERE PymCode = 'Incoming BT' AND Currency IN ('EUR', 'CAN')</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -18054,7 +18413,7 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H423" t="b">
         <v>1</v>
@@ -18084,7 +18443,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>SELECT T1.E_Mail, T2.LicTradNum 
+          <t>SELECT T1.E_Mail, T1.LicTradNum 
 FROM TGG1 AS T1 
 INNER JOIN OTGG AS T2 
 ON T1.TargetCode = T2.TargetCode 
@@ -18100,11 +18459,11 @@
         <v>248</v>
       </c>
       <c r="H424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -18131,8 +18490,7 @@
 FROM OACT AS T1 
 INNER JOIN JDT1 AS T2 
 ON T1.AcctCode = T2.Account 
-WHERE T1.AcctCode = '_SYS00000000002'
-GROUP BY T1.AcctName</t>
+WHERE T1.AcctCode = '_SYS00000000002'</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -18141,7 +18499,7 @@
         </is>
       </c>
       <c r="G425" t="n">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H425" t="b">
         <v>1</v>
@@ -18172,9 +18530,10 @@
       <c r="E426" t="inlineStr">
         <is>
           <t>SELECT 
-    SUM(CASE WHEN STRFTIME('%Y', DueDate) = '2021' THEN Debit ELSE 0 END) AS total_debits,
-    SUM(CASE WHEN STRFTIME('%Y', DueDate) = '2021' THEN Credit ELSE 0 END) AS total_credits
-FROM JDT1;</t>
+    SUM(Debit) AS TotalDebits,
+    SUM(Credit) AS TotalCredits
+FROM JDT1
+WHERE STRFTIME('%Y', DueDate) = '2021';</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -18183,7 +18542,7 @@
         </is>
       </c>
       <c r="G426" t="n">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="H426" t="b">
         <v>0</v>
@@ -18218,8 +18577,9 @@
   AVG(BGT1.DebLTotal / 12) AS AvgMonthlyDebit, 
   AVG(BGT1.CredLTotal / 12) AS AvgMonthlyCredit
 FROM 
-  OACT 
-  INNER JOIN BGT1 ON OACT.AcctCode = BGT1.AcctCode
+  OACT
+INNER JOIN 
+  BGT1 ON OACT.AcctCode = BGT1.AcctCode
 WHERE 
   OACT.AcctName LIKE '%Travel Expense%'
 GROUP BY 
@@ -18232,7 +18592,7 @@
         </is>
       </c>
       <c r="G427" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H427" t="b">
         <v>0</v>
@@ -18263,9 +18623,9 @@
       <c r="E428" t="inlineStr">
         <is>
           <t>SELECT T1.AcctName, T1.CurrTotal 
-FROM OACT AS T1
-INNER JOIN OACG AS T2
-ON T1.Category = T2.AbsId
+FROM OACT AS T1 
+INNER JOIN OACG AS T2 
+ON T1.Category = T2.AbsId 
 WHERE T2.Name = 'Cash'</t>
         </is>
       </c>
@@ -18384,12 +18744,12 @@
       <c r="E431" t="inlineStr">
         <is>
           <t>SELECT 
-  STRFTIME('%Y', NextDeu) AS year,
-  COUNT(*) AS count
+    STRFTIME('%Y', NextDeu) AS Year, 
+    COUNT(*) AS Count 
 FROM 
-  ORCR
+    ORCR 
 GROUP BY 
-  STRFTIME('%Y', NextDeu)</t>
+    STRFTIME('%Y', NextDeu)</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -18398,7 +18758,7 @@
         </is>
       </c>
       <c r="G431" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H431" t="b">
         <v>0</v>
@@ -18469,7 +18829,7 @@
         <is>
           <t>SELECT O.Name, F.CalcMethod, F.CalMethod2, F.CalMethod3 
 FROM OFRC O 
-JOIN FRC1 F ON O.CatId = F.CatId 
+INNER JOIN FRC1 F ON O.CatId = F.CatId 
 WHERE F.CFWId &gt; 30</t>
         </is>
       </c>
@@ -18479,7 +18839,7 @@
         </is>
       </c>
       <c r="G433" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H433" t="b">
         <v>1</v>
@@ -18552,7 +18912,7 @@
         <is>
           <t>SELECT DSCRIPTION, EXPCOSTS 
 FROM PMG1 
-WHERE START DATETIME &lt; '2021-10-20'</t>
+WHERE START DATETIME &lt; '2021-10-20 00:00:00';</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -18561,7 +18921,7 @@
         </is>
       </c>
       <c r="G435" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H435" t="b">
         <v>0</v>
@@ -18631,8 +18991,8 @@
       <c r="E437" t="inlineStr">
         <is>
           <t>SELECT COUNT(DAB1.DsbEntry) 
-FROM ODAB 
-JOIN DAB1 ON ODAB.AbsEntry = DAB1.DsbEntry 
+FROM DAB1 
+INNER JOIN ODAB ON DAB1.DsbEntry = ODAB.AbsEntry 
 WHERE ODAB.DashbdCode = 'DAB002'</t>
         </is>
       </c>
@@ -18642,7 +19002,7 @@
         </is>
       </c>
       <c r="G437" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H437" t="b">
         <v>1</v>
@@ -18799,9 +19159,9 @@
       <c r="E441" t="inlineStr">
         <is>
           <t>SELECT AVG(R2.CapFactor1) 
-FROM RSC6 R2 
-INNER JOIN ORSC R1 ON R2.ResCode = R1.ResCode 
-WHERE R1.ResName = 'Testing Machine' AND R2.WeekDay BETWEEN 1 AND 5</t>
+FROM RSC6 AS R2 
+JOIN ORSC AS O1 ON R2.ResCode = O1.ResCode 
+WHERE O1.ResName = 'Testing Machine' AND R2.WeekDay BETWEEN 1 AND 5</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -18810,7 +19170,7 @@
         </is>
       </c>
       <c r="G441" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H441" t="b">
         <v>1</v>
@@ -18883,8 +19243,8 @@
       <c r="E443" t="inlineStr">
         <is>
           <t>SELECT C._Left, C._Right, C._Top, C._Bottom 
-FROM CPT1 C 
-INNER JOIN OCPT O ON C.AbsEntry = O.AbsEntry 
+FROM CPT1 C
+JOIN OCPT O ON C.AbsEntry = O.AbsEntry
 WHERE O.Name = 'Purchase'</t>
         </is>
       </c>
@@ -18894,7 +19254,7 @@
         </is>
       </c>
       <c r="G443" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H443" t="b">
         <v>1</v>
@@ -19010,7 +19370,7 @@
         <is>
           <t>SELECT StrDate, EndDate, Rmrks 
 FROM HLD1 
-WHERE STRFTIME('%Y', StrDate) = '2014';</t>
+WHERE strftime('%Y', StrDate) = '2014';</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -19019,7 +19379,7 @@
         </is>
       </c>
       <c r="G446" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H446" t="b">
         <v>0</v>
@@ -19051,8 +19411,8 @@
         <is>
           <t>SELECT AVG(T2.salary) 
 FROM OHTM AS T1 
-JOIN HTM1 AS T3 ON T1.teamID = T3.teamID 
-JOIN OHEM AS T2 ON T3.empID = T2.empID 
+INNER JOIN HTM1 AS T3 ON T1.teamID = T3.teamID 
+INNER JOIN OHEM AS T2 ON T3.empID = T2.empID 
 WHERE T1.name = 'Purchasing'</t>
         </is>
       </c>
@@ -19062,7 +19422,7 @@
         </is>
       </c>
       <c r="G447" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H447" t="b">
         <v>1</v>
@@ -19094,7 +19454,7 @@
         <is>
           <t>SELECT officeTel, mobile, pager, homeTel 
 FROM OHEM 
-WHERE firstName = 'George' AND lastName = 'Keeng'</t>
+WHERE firstName = 'George' AND lastName = 'Keeng';</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -19133,9 +19493,10 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>SELECT FNameSP, SurnameSP 
-FROM OHEM 
-WHERE firstName = 'Maria' AND lastName = 'Bridi'</t>
+          <t>SELECT T2.firstName, T2.lastName 
+FROM OHEM T1 
+JOIN OHEM T2 ON T1.FNameSP = T2.firstName AND T1.SurnameSP = T2.lastName
+WHERE T1.firstName = 'Maria' AND T1.lastName = 'Bridi'</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -19144,14 +19505,14 @@
         </is>
       </c>
       <c r="G449" t="n">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="H449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -19335,10 +19696,8 @@
         <is>
           <t>SELECT AVG(T2.VacCurYear) 
 FROM OHTM AS T1 
-INNER JOIN HTM1 AS T3 
-ON T1.teamID = T3.teamID 
-INNER JOIN OHEM AS T2 
-ON T3.empID = T2.empID 
+INNER JOIN HTM1 AS T3 ON T1.teamID = T3.teamID 
+INNER JOIN OHEM AS T2 ON T3.empID = T2.empID 
 WHERE T1.name = 'Sales'</t>
         </is>
       </c>
@@ -19348,7 +19707,7 @@
         </is>
       </c>
       <c r="G454" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H454" t="b">
         <v>1</v>
@@ -19379,9 +19738,9 @@
       <c r="E455" t="inlineStr">
         <is>
           <t>SELECT T1.teamID 
-FROM HTM1 AS T1
-INNER JOIN OHEM AS T2
-ON T1.empID = T2.empID
+FROM HTM1 AS T1 
+INNER JOIN OHEM AS T2 
+ON T1.empID = T2.empID 
 WHERE T2.CPF = '51B'</t>
         </is>
       </c>
@@ -19800,7 +20159,7 @@
     SUM(IsCommited) AS total_committed,
     SUM(OnOrder) AS total_on_order
 FROM OITM
-WHERE ItemName = 'USB Flashdrive 128GB';</t>
+WHERE ItemName = 'USB Flashdrive 128GB'</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -19840,12 +20199,13 @@
       <c r="E466" t="inlineStr">
         <is>
           <t>SELECT 
-  COUNT(O.ItemCode) AS num_committed_items,
-  I.Price AS price_per_item,
-  SUM(I.Price) AS total_price
-FROM OITM O
-JOIN ITM1 I ON O.ItemCode = I.ItemCode
-WHERE O.IsCommited = 1 AND O.ItemName = 'Memory Chip'</t>
+  COUNT(DISTINCT O.ItemCode) AS num_commited_items,
+  (SELECT Price FROM ITM1 WHERE ItemCode = O.ItemCode) AS price_per_item,
+  COUNT(DISTINCT O.ItemCode) * (SELECT Price FROM ITM1 WHERE ItemCode = O.ItemCode) AS total_price
+FROM 
+  OITM O
+WHERE 
+  O.IsCommited = 1 AND O.ItemName = 'Memory Chip'</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -19854,7 +20214,7 @@
         </is>
       </c>
       <c r="G466" t="n">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="H466" t="b">
         <v>0</v>
@@ -19884,10 +20244,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>SELECT O.ItemName, O.Consig, O.LastPurPrc 
-FROM OITM O 
-JOIN ITM2 I ON O.ItemCode = I.ItemCode 
-WHERE I.VendorCode = 'V1010'</t>
+          <t>SELECT T1.ItemName, T1.Consig, T1.LastPurPrc 
+FROM OITM AS T1 
+INNER JOIN ITM2 AS T2 
+ON T1.ItemCode = T2.ItemCode 
+WHERE T2.VendorCode = 'V1010'</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -19896,7 +20257,7 @@
         </is>
       </c>
       <c r="G467" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H467" t="b">
         <v>1</v>
@@ -19927,8 +20288,8 @@
       <c r="E468" t="inlineStr">
         <is>
           <t>SELECT T1.Height1, T1.Width1, T1.Length1, T1.Volume 
-FROM ITM4 T1
-INNER JOIN OITM T2 ON T1.ItemCode = T2.ItemCode
+FROM ITM4 T1 
+INNER JOIN OITM T2 ON T1.ItemCode = T2.ItemCode 
 WHERE T2.ItemName = 'Printer Paper A4 White' AND T1.QtyPerPack = 24</t>
         </is>
       </c>
@@ -20050,10 +20411,8 @@
         <is>
           <t>SELECT T1.BcdCode 
 FROM OBCD T1 
-INNER JOIN OITM T2 
-ON T1.ItemCode = T2.ItemCode 
-WHERE T2.ItemName = 'Printer Paper A4 White' 
-AND T1.UomEntry IN (3, 4)</t>
+INNER JOIN OITM T2 ON T1.ItemCode = T2.ItemCode 
+WHERE T2.ItemName = 'Printer Paper A4 White' AND T1.UomEntry IN (3, 4)</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -20062,7 +20421,7 @@
         </is>
       </c>
       <c r="G471" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H471" t="b">
         <v>1</v>
@@ -20135,7 +20494,7 @@
         <is>
           <t>SELECT T1.ItmsGrpNam, COUNT(T2.ItmsGrpCod) 
 FROM OITB T1 
-INNER JOIN OITM T2 ON T1.ItmsGrpCod = T2.ItmsGrpCod 
+JOIN OITM T2 ON T1.ItmsGrpCod = T2.ItmsGrpCod 
 GROUP BY T1.ItmsGrpNam</t>
         </is>
       </c>
@@ -20145,7 +20504,7 @@
         </is>
       </c>
       <c r="G473" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H473" t="b">
         <v>1</v>
@@ -20220,7 +20579,7 @@
         <is>
           <t>SELECT T1.ParamName, T1.ParamPrms 
 FROM ECM1 T1 
-JOIN OECM T2 ON T1.Code = T2.Code 
+INNER JOIN OECM T2 ON T1.Code = T2.Code 
 WHERE T2.Descr = 'Electronic documents'</t>
         </is>
       </c>
@@ -20230,7 +20589,7 @@
         </is>
       </c>
       <c r="G475" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H475" t="b">
         <v>1</v>
@@ -20261,9 +20620,9 @@
       <c r="E476" t="inlineStr">
         <is>
           <t>SELECT T1.FieldXPath, T1.ObjXPath 
-FROM ECM4 AS T1 
-INNER JOIN OECM AS T2 
-ON T1.Code = T2.Code 
+FROM ECM4 AS T1
+INNER JOIN OECM AS T2
+ON T1.Code = T2.Code
 WHERE T2.Descr = 'PEPPOL'</t>
         </is>
       </c>
@@ -20503,17 +20862,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>SELECT 
-  RDOC.DocCode, 
-  RDOC.DocName, 
-  COUNT(RITM.DocCode) as CountOfReportingElements
-FROM 
-  RDOC 
-  LEFT JOIN RITM ON RDOC.DocCode = RITM.DocCode
-WHERE 
-  RDOC.TypeCode = 'WTR1'
-GROUP BY 
-  RDOC.DocCode, RDOC.DocName</t>
+          <t>SELECT RDOC.DocCode, RDOC.DocName, COUNT(RITM.DocCode) 
+FROM RDOC 
+LEFT JOIN RITM ON RDOC.DocCode = RITM.DocCode 
+WHERE RDOC.TypeCode = 'WTR1' 
+GROUP BY RDOC.DocCode, RDOC.DocName</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -20522,7 +20875,7 @@
         </is>
       </c>
       <c r="G482" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H482" t="b">
         <v>1</v>
@@ -20731,7 +21084,7 @@
           <t>SELECT 
   O1.OpprId,
   O2.CardCode,
-  AVG(O1.ClosePrcnt) AS AverageClosePrcnt
+  AVG(O1.ClosePrcnt) AS Average_ClosePrcnt
 FROM 
   OPR1 O1
 INNER JOIN 
@@ -20859,9 +21212,9 @@
       <c r="E490" t="inlineStr">
         <is>
           <t>SELECT 
-  CardName,
-  SUM(RealSumLoc + RealSumSys) AS TotalAmount,
-  SUM(RealProfL + RealProfS) AS TotalGrossProfit,
+  CardName, 
+  SUM(RealSumLoc + RealSumSys) AS TotalAmount, 
+  SUM(RealProfL + RealProfS) AS TotalGrossProfit, 
   AVG(CloPrcnt) AS AverageClosingPercentage
 FROM 
   OOPR
@@ -20875,7 +21228,7 @@
         </is>
       </c>
       <c r="G490" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H490" t="b">
         <v>0</v>
@@ -21027,12 +21380,12 @@
       <c r="E494" t="inlineStr">
         <is>
           <t>SELECT 
-  STRFTIME('%Y', CreateDate) AS Year,
-  AVG(SumProfL) AS AverageGrossProfit
+    STRFTIME('%Y', CreateDate) AS YearCreated,
+    AVG(SumProfL) AS AverageGrossProfit
 FROM 
-  OOPR
+    OOPR
 GROUP BY 
-  STRFTIME('%Y', CreateDate)</t>
+    STRFTIME('%Y', CreateDate)</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -21041,7 +21394,7 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H494" t="b">
         <v>0</v>
@@ -21115,7 +21468,7 @@
         <is>
           <t>SELECT ContractID, Renewal 
 FROM OCTR 
-WHERE CstmrName = 'Maxi-Teq';</t>
+WHERE CstmrName = 'Maxi-Teq'</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -21235,7 +21588,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>SELECT descript, manager, email FROM OQUE</t>
+          <t>SELECT descript, manager, email FROM OQUE;</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -21399,11 +21752,11 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>SELECT OCTR.CstmrName, COUNT(OSCL.customer) 
-FROM OCTR 
-JOIN OSCL ON OCTR.CstmrCode = OSCL.customer
-WHERE OCTR.CstmrName LIKE '%Silver Warranty%'
-GROUP BY OCTR.CstmrName</t>
+          <t>SELECT T1.CstmrName, COUNT(T2.customer) as call_count
+FROM OCTR T1
+JOIN OSCL T2 ON T1.CstmrCode = T2.customer
+WHERE T1.CstmrName LIKE '%Silver Warranty%'
+GROUP BY T1.CstmrName;</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -21412,7 +21765,7 @@
         </is>
       </c>
       <c r="G503" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H503" t="b">
         <v>0</v>
@@ -21442,7 +21795,9 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>SELECT internalSN FROM OINS WHERE custmrName = 'microhips' AND itemCode = 'A00006'</t>
+          <t>SELECT internalSN 
+FROM OINS 
+WHERE custmrName = 'microhips' AND itemCode = 'A00006'</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -21451,7 +21806,7 @@
         </is>
       </c>
       <c r="G504" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H504" t="b">
         <v>0</v>
